--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasioszafeiriou/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B19CEBD-F5EA-5A4E-B3CB-0068677ADE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="24200" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,21 +131,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -223,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -7546,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J73">
         <v>92.16465265486727</v>
@@ -8776,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="I103">
-        <v>2272.85</v>
+        <v>2771.768292682927</v>
       </c>
       <c r="J103">
         <v>2021.129634955752</v>
@@ -9760,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="I127">
-        <v>135.78</v>
+        <v>165.5853658536585</v>
       </c>
       <c r="J127">
         <v>120.8507920353982</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="I139">
-        <v>86.65000000000001</v>
+        <v>105.6707317073171</v>
       </c>
       <c r="J139">
         <v>76.60118362831858</v>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="I147">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J147">
         <v>87.63431415929205</v>
@@ -10826,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="I153">
-        <v>197.8</v>
+        <v>241.219512195122</v>
       </c>
       <c r="J153">
         <v>175.2686283185841</v>
@@ -10908,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="I155">
-        <v>216.88</v>
+        <v>264.4878048780488</v>
       </c>
       <c r="J155">
         <v>192.4532920353982</v>
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="I156">
-        <v>216.88</v>
+        <v>264.4878048780488</v>
       </c>
       <c r="J156">
         <v>192.4532920353982</v>
@@ -11482,7 +11482,7 @@
         <v>2</v>
       </c>
       <c r="I169">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J169">
         <v>92.16465265486727</v>
@@ -11810,7 +11810,7 @@
         <v>2</v>
       </c>
       <c r="I177">
-        <v>207.86</v>
+        <v>253.4878048780488</v>
       </c>
       <c r="J177">
         <v>184.3293053097345</v>
@@ -11851,7 +11851,7 @@
         <v>2</v>
       </c>
       <c r="I178">
-        <v>80.09</v>
+        <v>97.67073170731709</v>
       </c>
       <c r="J178">
         <v>70.6928296460177</v>
@@ -11892,7 +11892,7 @@
         <v>2</v>
       </c>
       <c r="I179">
-        <v>137.83</v>
+        <v>168.0853658536586</v>
       </c>
       <c r="J179">
         <v>122.6971526548673</v>
@@ -12015,7 +12015,7 @@
         <v>2</v>
       </c>
       <c r="I182">
-        <v>116.5</v>
+        <v>142.0731707317073</v>
       </c>
       <c r="J182">
         <v>103.4859955752212</v>
@@ -12914,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I204">
-        <v>122.69</v>
+        <v>149.6219512195122</v>
       </c>
       <c r="J204">
         <v>109.0611039823009</v>
@@ -12996,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="I206">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J206">
         <v>103.026657079646</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="I207">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J207">
         <v>103.026657079646</v>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="I208">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J208">
         <v>96.22664601769911</v>
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="I216">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J216">
         <v>92.16465265486727</v>
@@ -13488,7 +13488,7 @@
         <v>3</v>
       </c>
       <c r="I218">
-        <v>136.52</v>
+        <v>166.4878048780488</v>
       </c>
       <c r="J218">
         <v>121.5172831858407</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="I222">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J222">
         <v>104.5307654867257</v>
@@ -13693,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="I223">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J223">
         <v>104.5307654867257</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="I231">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J231">
         <v>104.5307654867257</v>
@@ -14185,7 +14185,7 @@
         <v>2</v>
       </c>
       <c r="I235">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J235">
         <v>92.16465265486727</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="I244">
-        <v>118.5</v>
+        <v>144.5121951219512</v>
       </c>
       <c r="J244">
         <v>105.2873230088496</v>
@@ -14923,7 +14923,7 @@
         <v>2</v>
       </c>
       <c r="I253">
-        <v>122.69</v>
+        <v>149.6219512195122</v>
       </c>
       <c r="J253">
         <v>109.0611039823009</v>
@@ -15210,7 +15210,7 @@
         <v>2</v>
       </c>
       <c r="I260">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J260">
         <v>92.16465265486727</v>
@@ -15251,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="I261">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J261">
         <v>92.16465265486727</v>
@@ -15374,7 +15374,7 @@
         <v>2</v>
       </c>
       <c r="I264">
-        <v>157.47</v>
+        <v>192.0365853658537</v>
       </c>
       <c r="J264">
         <v>140.3861880530974</v>
@@ -15702,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="I272">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J272">
         <v>104.5307654867257</v>
@@ -15948,7 +15948,7 @@
         <v>2</v>
       </c>
       <c r="I278">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J278">
         <v>96.22664601769911</v>
@@ -15989,7 +15989,7 @@
         <v>2</v>
       </c>
       <c r="I279">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J279">
         <v>96.22664601769911</v>
@@ -16030,7 +16030,7 @@
         <v>2</v>
       </c>
       <c r="I280">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J280">
         <v>96.22664601769911</v>
@@ -16235,7 +16235,7 @@
         <v>2</v>
       </c>
       <c r="I285">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J285">
         <v>92.16465265486727</v>
@@ -16276,7 +16276,7 @@
         <v>2</v>
       </c>
       <c r="I286">
-        <v>115.48</v>
+        <v>140.8292682926829</v>
       </c>
       <c r="J286">
         <v>102.5673185840708</v>
@@ -16317,7 +16317,7 @@
         <v>1</v>
       </c>
       <c r="I287">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J287">
         <v>92.16465265486727</v>
@@ -16358,7 +16358,7 @@
         <v>2</v>
       </c>
       <c r="I288">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J288">
         <v>87.63431415929205</v>
@@ -17178,7 +17178,7 @@
         <v>2</v>
       </c>
       <c r="I308">
-        <v>116.5</v>
+        <v>142.0731707317073</v>
       </c>
       <c r="J308">
         <v>103.4859955752212</v>
@@ -17260,7 +17260,7 @@
         <v>2</v>
       </c>
       <c r="I310">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J310">
         <v>92.16465265486727</v>
@@ -17298,7 +17298,7 @@
         <v>1348</v>
       </c>
       <c r="I311">
-        <v>105.93</v>
+        <v>129.1829268292683</v>
       </c>
       <c r="J311">
         <v>93.96598008849557</v>
@@ -17336,7 +17336,7 @@
         <v>1348</v>
       </c>
       <c r="I312">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J312">
         <v>111.3217699115044</v>
@@ -17374,7 +17374,7 @@
         <v>1348</v>
       </c>
       <c r="I313">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J313">
         <v>104.5307654867257</v>
@@ -18425,7 +18425,7 @@
         <v>2</v>
       </c>
       <c r="I339">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J339">
         <v>87.63431415929205</v>
@@ -18545,7 +18545,7 @@
         <v>1349</v>
       </c>
       <c r="I342">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J342">
         <v>96.22664601769911</v>
@@ -18583,7 +18583,7 @@
         <v>1349</v>
       </c>
       <c r="I343">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J343">
         <v>96.22664601769911</v>
@@ -18829,7 +18829,7 @@
         <v>2</v>
       </c>
       <c r="I349">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J349">
         <v>111.3217699115044</v>
@@ -18870,7 +18870,7 @@
         <v>1</v>
       </c>
       <c r="I350">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J350">
         <v>111.3217699115044</v>
@@ -19239,7 +19239,7 @@
         <v>1</v>
       </c>
       <c r="I359">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J359">
         <v>92.16465265486727</v>
@@ -19280,7 +19280,7 @@
         <v>1</v>
       </c>
       <c r="I360">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J360">
         <v>92.16465265486727</v>
@@ -19523,7 +19523,7 @@
         <v>1350</v>
       </c>
       <c r="I366">
-        <v>117.66</v>
+        <v>143.4878048780488</v>
       </c>
       <c r="J366">
         <v>104.5307654867257</v>
@@ -19637,7 +19637,7 @@
         <v>1350</v>
       </c>
       <c r="I369">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J369">
         <v>96.22664601769911</v>
@@ -19675,7 +19675,7 @@
         <v>1350</v>
       </c>
       <c r="I370">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J370">
         <v>111.3217699115044</v>
@@ -20126,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="I381">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J381">
         <v>92.16465265486727</v>
@@ -20208,7 +20208,7 @@
         <v>2</v>
       </c>
       <c r="I383">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J383">
         <v>92.16465265486727</v>
@@ -20454,7 +20454,7 @@
         <v>2</v>
       </c>
       <c r="I389">
-        <v>106.44</v>
+        <v>129.8048780487805</v>
       </c>
       <c r="J389">
         <v>94.42531858407081</v>
@@ -20656,7 +20656,7 @@
         <v>1351</v>
       </c>
       <c r="I394">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J394">
         <v>103.026657079646</v>
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="I399">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J399">
         <v>111.3217699115044</v>
@@ -21265,7 +21265,7 @@
         <v>1352</v>
       </c>
       <c r="I409">
-        <v>122.69</v>
+        <v>149.6219512195122</v>
       </c>
       <c r="J409">
         <v>109.0611039823009</v>
@@ -21839,7 +21839,7 @@
         <v>2</v>
       </c>
       <c r="I423">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J423">
         <v>96.22664601769911</v>
@@ -21921,7 +21921,7 @@
         <v>1</v>
       </c>
       <c r="I425">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J425">
         <v>96.22664601769911</v>
@@ -22492,7 +22492,7 @@
         <v>1353</v>
       </c>
       <c r="I439">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J439">
         <v>103.026657079646</v>
@@ -22697,7 +22697,7 @@
         <v>1</v>
       </c>
       <c r="I444">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J444">
         <v>111.3217699115044</v>
@@ -22738,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="I445">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J445">
         <v>103.026657079646</v>
@@ -23271,7 +23271,7 @@
         <v>3</v>
       </c>
       <c r="I458">
-        <v>131.49</v>
+        <v>160.3536585365854</v>
       </c>
       <c r="J458">
         <v>116.9869446902655</v>
@@ -23640,7 +23640,7 @@
         <v>2</v>
       </c>
       <c r="I467">
-        <v>115.99</v>
+        <v>141.4512195121951</v>
       </c>
       <c r="J467">
         <v>103.026657079646</v>
@@ -24255,7 +24255,7 @@
         <v>2</v>
       </c>
       <c r="I482">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J482">
         <v>92.16465265486727</v>
@@ -24952,7 +24952,7 @@
         <v>2</v>
       </c>
       <c r="I499">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J499">
         <v>96.22664601769911</v>
@@ -25444,7 +25444,7 @@
         <v>1</v>
       </c>
       <c r="I511">
-        <v>118.5</v>
+        <v>144.5121951219512</v>
       </c>
       <c r="J511">
         <v>105.2873230088496</v>
@@ -26015,7 +26015,7 @@
         <v>1358</v>
       </c>
       <c r="I525">
-        <v>375.6</v>
+        <v>458.0487804878049</v>
       </c>
       <c r="J525">
         <v>333.9653097345133</v>
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="I528">
-        <v>103.93</v>
+        <v>126.7439024390244</v>
       </c>
       <c r="J528">
         <v>92.16465265486727</v>
@@ -26179,7 +26179,7 @@
         <v>2</v>
       </c>
       <c r="I529">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J529">
         <v>120.0942345132743</v>
@@ -26261,7 +26261,7 @@
         <v>2</v>
       </c>
       <c r="I531">
-        <v>131.49</v>
+        <v>160.3536585365854</v>
       </c>
       <c r="J531">
         <v>116.9869446902655</v>
@@ -27040,7 +27040,7 @@
         <v>2</v>
       </c>
       <c r="I550">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J550">
         <v>120.0942345132743</v>
@@ -27081,7 +27081,7 @@
         <v>2</v>
       </c>
       <c r="I551">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J551">
         <v>120.0942345132743</v>
@@ -27122,7 +27122,7 @@
         <v>2</v>
       </c>
       <c r="I552">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J552">
         <v>120.0942345132743</v>
@@ -27163,7 +27163,7 @@
         <v>1</v>
       </c>
       <c r="I553">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J553">
         <v>120.0942345132743</v>
@@ -27368,7 +27368,7 @@
         <v>2</v>
       </c>
       <c r="I558">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J558">
         <v>87.63431415929205</v>
@@ -27532,7 +27532,7 @@
         <v>1</v>
       </c>
       <c r="I562">
-        <v>116.5</v>
+        <v>142.0731707317073</v>
       </c>
       <c r="J562">
         <v>103.4859955752212</v>
@@ -27573,7 +27573,7 @@
         <v>1</v>
       </c>
       <c r="I563">
-        <v>116.5</v>
+        <v>142.0731707317073</v>
       </c>
       <c r="J563">
         <v>103.4859955752212</v>
@@ -27611,7 +27611,7 @@
         <v>1358</v>
       </c>
       <c r="I564">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J564">
         <v>111.3217699115044</v>
@@ -28390,7 +28390,7 @@
         <v>2</v>
       </c>
       <c r="I583">
-        <v>116.5</v>
+        <v>142.0731707317073</v>
       </c>
       <c r="J583">
         <v>103.4859955752212</v>
@@ -28882,7 +28882,7 @@
         <v>2</v>
       </c>
       <c r="I595">
-        <v>122.69</v>
+        <v>149.6219512195122</v>
       </c>
       <c r="J595">
         <v>109.0611039823009</v>
@@ -29374,7 +29374,7 @@
         <v>2</v>
       </c>
       <c r="I607">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J607">
         <v>87.63431415929205</v>
@@ -29702,7 +29702,7 @@
         <v>1</v>
       </c>
       <c r="I615">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J615">
         <v>111.3217699115044</v>
@@ -29825,7 +29825,7 @@
         <v>3</v>
       </c>
       <c r="I618">
-        <v>141.04</v>
+        <v>172</v>
       </c>
       <c r="J618">
         <v>125.5882831858407</v>
@@ -30235,7 +30235,7 @@
         <v>2</v>
       </c>
       <c r="I628">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J628">
         <v>120.0942345132743</v>
@@ -30276,7 +30276,7 @@
         <v>2</v>
       </c>
       <c r="I629">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J629">
         <v>120.0942345132743</v>
@@ -30317,7 +30317,7 @@
         <v>2</v>
       </c>
       <c r="I630">
-        <v>118.5</v>
+        <v>144.5121951219512</v>
       </c>
       <c r="J630">
         <v>105.2873230088496</v>
@@ -30932,7 +30932,7 @@
         <v>2</v>
       </c>
       <c r="I645">
-        <v>79.11</v>
+        <v>96.47560975609757</v>
       </c>
       <c r="J645">
         <v>69.81017920353982</v>
@@ -31178,7 +31178,7 @@
         <v>2</v>
       </c>
       <c r="I651">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J651">
         <v>120.0942345132743</v>
@@ -32203,7 +32203,7 @@
         <v>1</v>
       </c>
       <c r="I676">
-        <v>118.5</v>
+        <v>144.5121951219512</v>
       </c>
       <c r="J676">
         <v>105.2873230088496</v>
@@ -32241,7 +32241,7 @@
         <v>1363</v>
       </c>
       <c r="I677">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J677">
         <v>96.22664601769911</v>
@@ -32569,7 +32569,7 @@
         <v>2</v>
       </c>
       <c r="I685">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J685">
         <v>111.3217699115044</v>
@@ -32938,7 +32938,7 @@
         <v>2</v>
       </c>
       <c r="I694">
-        <v>108.44</v>
+        <v>132.2439024390244</v>
       </c>
       <c r="J694">
         <v>96.22664601769911</v>
@@ -33143,7 +33143,7 @@
         <v>1</v>
       </c>
       <c r="I699">
-        <v>118.5</v>
+        <v>144.5121951219512</v>
       </c>
       <c r="J699">
         <v>105.2873230088496</v>
@@ -33676,7 +33676,7 @@
         <v>1</v>
       </c>
       <c r="I712">
-        <v>135.26</v>
+        <v>164.9512195121951</v>
       </c>
       <c r="J712">
         <v>120.3824469026549</v>
@@ -33758,7 +33758,7 @@
         <v>2</v>
       </c>
       <c r="I714">
-        <v>135.26</v>
+        <v>164.9512195121951</v>
       </c>
       <c r="J714">
         <v>120.3824469026549</v>
@@ -34045,7 +34045,7 @@
         <v>2</v>
       </c>
       <c r="I721">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J721">
         <v>120.0942345132743</v>
@@ -34086,7 +34086,7 @@
         <v>2</v>
       </c>
       <c r="I722">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J722">
         <v>120.0942345132743</v>
@@ -34127,7 +34127,7 @@
         <v>2</v>
       </c>
       <c r="I723">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J723">
         <v>120.0942345132743</v>
@@ -34250,7 +34250,7 @@
         <v>2</v>
       </c>
       <c r="I726">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J726">
         <v>87.63431415929205</v>
@@ -34534,7 +34534,7 @@
         <v>1365</v>
       </c>
       <c r="I733">
-        <v>125.2</v>
+        <v>152.6829268292683</v>
       </c>
       <c r="J733">
         <v>111.3217699115044</v>
@@ -34698,7 +34698,7 @@
         <v>2</v>
       </c>
       <c r="I737">
-        <v>135.26</v>
+        <v>164.9512195121951</v>
       </c>
       <c r="J737">
         <v>120.3824469026549</v>
@@ -34862,7 +34862,7 @@
         <v>2</v>
       </c>
       <c r="I741">
-        <v>134.94</v>
+        <v>164.5609756097561</v>
       </c>
       <c r="J741">
         <v>120.0942345132743</v>
@@ -34944,7 +34944,7 @@
         <v>2</v>
       </c>
       <c r="I743">
-        <v>98.90000000000001</v>
+        <v>120.609756097561</v>
       </c>
       <c r="J743">
         <v>87.63431415929205</v>
@@ -35354,7 +35354,7 @@
         <v>2</v>
       </c>
       <c r="I753">
-        <v>135.26</v>
+        <v>164.9512195121951</v>
       </c>
       <c r="J753">
         <v>120.3824469026549</v>
@@ -35805,7 +35805,7 @@
         <v>2</v>
       </c>
       <c r="I764">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J764">
         <v>104.2425530973451</v>
@@ -35969,7 +35969,7 @@
         <v>2</v>
       </c>
       <c r="I768">
-        <v>142.48</v>
+        <v>173.7560975609756</v>
       </c>
       <c r="J768">
         <v>126.8852389380531</v>
@@ -36051,7 +36051,7 @@
         <v>2</v>
       </c>
       <c r="I770">
-        <v>139.45</v>
+        <v>170.0609756097561</v>
       </c>
       <c r="J770">
         <v>124.1562278761062</v>
@@ -36496,7 +36496,7 @@
         <v>2</v>
       </c>
       <c r="I781">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J781">
         <v>111.7811084070796</v>
@@ -36660,7 +36660,7 @@
         <v>2</v>
       </c>
       <c r="I785">
-        <v>149.51</v>
+        <v>182.3292682926829</v>
       </c>
       <c r="J785">
         <v>133.2169048672566</v>
@@ -36988,7 +36988,7 @@
         <v>1</v>
       </c>
       <c r="I793">
-        <v>134.42</v>
+        <v>163.9268292682927</v>
       </c>
       <c r="J793">
         <v>119.625889380531</v>
@@ -37439,7 +37439,7 @@
         <v>2</v>
       </c>
       <c r="I804">
-        <v>139.13</v>
+        <v>169.6707317073171</v>
       </c>
       <c r="J804">
         <v>123.8680154867257</v>
@@ -37480,7 +37480,7 @@
         <v>2</v>
       </c>
       <c r="I805">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J805">
         <v>111.7811084070796</v>
@@ -37685,7 +37685,7 @@
         <v>1</v>
       </c>
       <c r="I810">
-        <v>130.22</v>
+        <v>158.8048780487805</v>
       </c>
       <c r="J810">
         <v>115.8431017699115</v>
@@ -37726,7 +37726,7 @@
         <v>1</v>
       </c>
       <c r="I811">
-        <v>120.18</v>
+        <v>146.5609756097561</v>
       </c>
       <c r="J811">
         <v>106.8004380530974</v>
@@ -38218,7 +38218,7 @@
         <v>2</v>
       </c>
       <c r="I823">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J823">
         <v>111.7811084070796</v>
@@ -38341,7 +38341,7 @@
         <v>1</v>
       </c>
       <c r="I826">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J826">
         <v>111.7811084070796</v>
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="I827">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J827">
         <v>111.7811084070796</v>
@@ -38505,7 +38505,7 @@
         <v>1</v>
       </c>
       <c r="I830">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J830">
         <v>121.8955619469027</v>
@@ -38710,7 +38710,7 @@
         <v>1</v>
       </c>
       <c r="I835">
-        <v>134.42</v>
+        <v>163.9268292682927</v>
       </c>
       <c r="J835">
         <v>119.625889380531</v>
@@ -39161,7 +39161,7 @@
         <v>2</v>
       </c>
       <c r="I846">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J846">
         <v>111.7811084070796</v>
@@ -39202,7 +39202,7 @@
         <v>2</v>
       </c>
       <c r="I847">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J847">
         <v>111.7811084070796</v>
@@ -39325,7 +39325,7 @@
         <v>1</v>
       </c>
       <c r="I850">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J850">
         <v>111.7811084070796</v>
@@ -39445,7 +39445,7 @@
         <v>1371</v>
       </c>
       <c r="I853">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J853">
         <v>130.947232300885</v>
@@ -39483,7 +39483,7 @@
         <v>1371</v>
       </c>
       <c r="I854">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J854">
         <v>130.947232300885</v>
@@ -39685,7 +39685,7 @@
         <v>2</v>
       </c>
       <c r="I859">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J859">
         <v>130.947232300885</v>
@@ -39808,7 +39808,7 @@
         <v>2</v>
       </c>
       <c r="I862">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J862">
         <v>139.2513517699115</v>
@@ -40095,7 +40095,7 @@
         <v>2</v>
       </c>
       <c r="I869">
-        <v>139.69</v>
+        <v>170.3536585365854</v>
       </c>
       <c r="J869">
         <v>124.3723871681416</v>
@@ -40136,7 +40136,7 @@
         <v>2</v>
       </c>
       <c r="I870">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J870">
         <v>111.7811084070796</v>
@@ -40300,7 +40300,7 @@
         <v>2</v>
       </c>
       <c r="I874">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J874">
         <v>121.8955619469027</v>
@@ -40546,7 +40546,7 @@
         <v>2</v>
       </c>
       <c r="I880">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J880">
         <v>130.947232300885</v>
@@ -40710,7 +40710,7 @@
         <v>2</v>
       </c>
       <c r="I884">
-        <v>130.22</v>
+        <v>158.8048780487805</v>
       </c>
       <c r="J884">
         <v>115.8431017699115</v>
@@ -41079,7 +41079,7 @@
         <v>2</v>
       </c>
       <c r="I893">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J893">
         <v>111.7811084070796</v>
@@ -41202,7 +41202,7 @@
         <v>2</v>
       </c>
       <c r="I896">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J896">
         <v>130.947232300885</v>
@@ -41243,7 +41243,7 @@
         <v>2</v>
       </c>
       <c r="I897">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J897">
         <v>121.8955619469027</v>
@@ -41653,7 +41653,7 @@
         <v>1</v>
       </c>
       <c r="I907">
-        <v>139.45</v>
+        <v>170.0609756097561</v>
       </c>
       <c r="J907">
         <v>124.1562278761062</v>
@@ -41817,7 +41817,7 @@
         <v>2</v>
       </c>
       <c r="I911">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J911">
         <v>111.7811084070796</v>
@@ -41940,7 +41940,7 @@
         <v>2</v>
       </c>
       <c r="I914">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J914">
         <v>130.947232300885</v>
@@ -42186,7 +42186,7 @@
         <v>2</v>
       </c>
       <c r="I920">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J920">
         <v>121.8955619469027</v>
@@ -42842,7 +42842,7 @@
         <v>2</v>
       </c>
       <c r="I936">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J936">
         <v>111.7811084070796</v>
@@ -43457,7 +43457,7 @@
         <v>2</v>
       </c>
       <c r="I951">
-        <v>90.84</v>
+        <v>110.7804878048781</v>
       </c>
       <c r="J951">
         <v>80.37496460176993</v>
@@ -43785,7 +43785,7 @@
         <v>2</v>
       </c>
       <c r="I959">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J959">
         <v>104.2425530973451</v>
@@ -43949,7 +43949,7 @@
         <v>2</v>
       </c>
       <c r="I963">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J963">
         <v>121.8955619469027</v>
@@ -44646,7 +44646,7 @@
         <v>2</v>
       </c>
       <c r="I980">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J980">
         <v>104.2425530973451</v>
@@ -44728,7 +44728,7 @@
         <v>2</v>
       </c>
       <c r="I982">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J982">
         <v>104.2425530973451</v>
@@ -44889,7 +44889,7 @@
         <v>1377</v>
       </c>
       <c r="I986">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J986">
         <v>121.8955619469027</v>
@@ -45381,7 +45381,7 @@
         <v>1</v>
       </c>
       <c r="I998">
-        <v>110.12</v>
+        <v>134.2926829268293</v>
       </c>
       <c r="J998">
         <v>97.73976106194692</v>
@@ -45952,7 +45952,7 @@
         <v>1378</v>
       </c>
       <c r="I1012">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1012">
         <v>130.947232300885</v>
@@ -46116,7 +46116,7 @@
         <v>1</v>
       </c>
       <c r="I1016">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1016">
         <v>130.947232300885</v>
@@ -46280,7 +46280,7 @@
         <v>1</v>
       </c>
       <c r="I1020">
-        <v>120.18</v>
+        <v>146.5609756097561</v>
       </c>
       <c r="J1020">
         <v>106.8004380530974</v>
@@ -46690,7 +46690,7 @@
         <v>2</v>
       </c>
       <c r="I1030">
-        <v>139.45</v>
+        <v>170.0609756097561</v>
       </c>
       <c r="J1030">
         <v>124.1562278761062</v>
@@ -46854,7 +46854,7 @@
         <v>2</v>
       </c>
       <c r="I1034">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1034">
         <v>130.947232300885</v>
@@ -46895,7 +46895,7 @@
         <v>2</v>
       </c>
       <c r="I1035">
-        <v>110.12</v>
+        <v>134.2926829268293</v>
       </c>
       <c r="J1035">
         <v>97.73976106194692</v>
@@ -47264,7 +47264,7 @@
         <v>2</v>
       </c>
       <c r="I1044">
-        <v>110.12</v>
+        <v>134.2926829268293</v>
       </c>
       <c r="J1044">
         <v>97.73976106194692</v>
@@ -47633,7 +47633,7 @@
         <v>2</v>
       </c>
       <c r="I1053">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J1053">
         <v>111.7811084070796</v>
@@ -47797,7 +47797,7 @@
         <v>2</v>
       </c>
       <c r="I1057">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J1057">
         <v>111.7811084070796</v>
@@ -47835,7 +47835,7 @@
         <v>1380</v>
       </c>
       <c r="I1058">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1058">
         <v>121.8955619469027</v>
@@ -47917,7 +47917,7 @@
         <v>1</v>
       </c>
       <c r="I1060">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1060">
         <v>130.947232300885</v>
@@ -48081,7 +48081,7 @@
         <v>1</v>
       </c>
       <c r="I1064">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J1064">
         <v>139.2513517699115</v>
@@ -48696,7 +48696,7 @@
         <v>2</v>
       </c>
       <c r="I1079">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1079">
         <v>121.8955619469027</v>
@@ -48819,7 +48819,7 @@
         <v>2</v>
       </c>
       <c r="I1082">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1082">
         <v>130.947232300885</v>
@@ -49147,7 +49147,7 @@
         <v>1</v>
       </c>
       <c r="I1090">
-        <v>130.22</v>
+        <v>158.8048780487805</v>
       </c>
       <c r="J1090">
         <v>115.8431017699115</v>
@@ -49393,7 +49393,7 @@
         <v>2</v>
       </c>
       <c r="I1096">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J1096">
         <v>111.7811084070796</v>
@@ -49431,7 +49431,7 @@
         <v>1382</v>
       </c>
       <c r="I1097">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1097">
         <v>121.8955619469027</v>
@@ -49469,7 +49469,7 @@
         <v>1382</v>
       </c>
       <c r="I1098">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1098">
         <v>121.8955619469027</v>
@@ -49507,7 +49507,7 @@
         <v>1382</v>
       </c>
       <c r="I1099">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1099">
         <v>121.8955619469027</v>
@@ -49671,7 +49671,7 @@
         <v>2</v>
       </c>
       <c r="I1103">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J1103">
         <v>139.2513517699115</v>
@@ -50286,7 +50286,7 @@
         <v>2</v>
       </c>
       <c r="I1118">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1118">
         <v>121.8955619469027</v>
@@ -50368,7 +50368,7 @@
         <v>1</v>
       </c>
       <c r="I1120">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1120">
         <v>121.8955619469027</v>
@@ -50573,7 +50573,7 @@
         <v>1</v>
       </c>
       <c r="I1125">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1125">
         <v>121.8955619469027</v>
@@ -50655,7 +50655,7 @@
         <v>2</v>
       </c>
       <c r="I1127">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1127">
         <v>130.947232300885</v>
@@ -50778,7 +50778,7 @@
         <v>2</v>
       </c>
       <c r="I1130">
-        <v>100.06</v>
+        <v>122.0243902439024</v>
       </c>
       <c r="J1130">
         <v>88.67908407079646</v>
@@ -50819,7 +50819,7 @@
         <v>2</v>
       </c>
       <c r="I1131">
-        <v>100.06</v>
+        <v>122.0243902439024</v>
       </c>
       <c r="J1131">
         <v>88.67908407079646</v>
@@ -50983,7 +50983,7 @@
         <v>1</v>
       </c>
       <c r="I1135">
-        <v>267.17</v>
+        <v>325.8170731707318</v>
       </c>
       <c r="J1135">
         <v>237.7476703539823</v>
@@ -51188,7 +51188,7 @@
         <v>2</v>
       </c>
       <c r="I1140">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J1140">
         <v>104.2425530973451</v>
@@ -51229,7 +51229,7 @@
         <v>2</v>
       </c>
       <c r="I1141">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J1141">
         <v>104.2425530973451</v>
@@ -51595,7 +51595,7 @@
         <v>1384</v>
       </c>
       <c r="I1150">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1150">
         <v>121.8955619469027</v>
@@ -51759,7 +51759,7 @@
         <v>2</v>
       </c>
       <c r="I1154">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1154">
         <v>130.947232300885</v>
@@ -52251,7 +52251,7 @@
         <v>2</v>
       </c>
       <c r="I1166">
-        <v>117.34</v>
+        <v>143.0975609756098</v>
       </c>
       <c r="J1166">
         <v>104.2425530973451</v>
@@ -52661,7 +52661,7 @@
         <v>2</v>
       </c>
       <c r="I1176">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1176">
         <v>121.8955619469027</v>
@@ -53030,7 +53030,7 @@
         <v>2</v>
       </c>
       <c r="I1185">
-        <v>120.18</v>
+        <v>146.5609756097561</v>
       </c>
       <c r="J1185">
         <v>106.8004380530974</v>
@@ -53563,7 +53563,7 @@
         <v>2</v>
       </c>
       <c r="I1198">
-        <v>139.13</v>
+        <v>169.6707317073171</v>
       </c>
       <c r="J1198">
         <v>123.8680154867257</v>
@@ -53601,7 +53601,7 @@
         <v>1386</v>
       </c>
       <c r="I1199">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J1199">
         <v>139.2513517699115</v>
@@ -53639,7 +53639,7 @@
         <v>1386</v>
       </c>
       <c r="I1200">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1200">
         <v>130.947232300885</v>
@@ -53721,7 +53721,7 @@
         <v>1</v>
       </c>
       <c r="I1202">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1202">
         <v>130.947232300885</v>
@@ -53762,7 +53762,7 @@
         <v>1</v>
       </c>
       <c r="I1203">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1203">
         <v>130.947232300885</v>
@@ -53844,7 +53844,7 @@
         <v>1</v>
       </c>
       <c r="I1205">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1205">
         <v>130.947232300885</v>
@@ -54418,7 +54418,7 @@
         <v>3</v>
       </c>
       <c r="I1219">
-        <v>171.73</v>
+        <v>209.4268292682927</v>
       </c>
       <c r="J1219">
         <v>153.2296526548672</v>
@@ -54620,7 +54620,7 @@
         <v>1387</v>
       </c>
       <c r="I1224">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1224">
         <v>121.8955619469027</v>
@@ -54784,7 +54784,7 @@
         <v>2</v>
       </c>
       <c r="I1228">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1228">
         <v>130.947232300885</v>
@@ -55194,7 +55194,7 @@
         <v>2</v>
       </c>
       <c r="I1238">
-        <v>142.48</v>
+        <v>173.7560975609756</v>
       </c>
       <c r="J1238">
         <v>126.8852389380531</v>
@@ -55317,7 +55317,7 @@
         <v>2</v>
       </c>
       <c r="I1241">
-        <v>149.51</v>
+        <v>182.3292682926829</v>
       </c>
       <c r="J1241">
         <v>133.2169048672566</v>
@@ -55355,7 +55355,7 @@
         <v>1388</v>
       </c>
       <c r="I1242">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1242">
         <v>130.947232300885</v>
@@ -55519,7 +55519,7 @@
         <v>1</v>
       </c>
       <c r="I1246">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1246">
         <v>130.947232300885</v>
@@ -55642,7 +55642,7 @@
         <v>2</v>
       </c>
       <c r="I1249">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J1249">
         <v>139.2513517699115</v>
@@ -56339,7 +56339,7 @@
         <v>2</v>
       </c>
       <c r="I1266">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1266">
         <v>130.947232300885</v>
@@ -56380,7 +56380,7 @@
         <v>1</v>
       </c>
       <c r="I1267">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1267">
         <v>121.8955619469027</v>
@@ -56544,7 +56544,7 @@
         <v>2</v>
       </c>
       <c r="I1271">
-        <v>154.54</v>
+        <v>188.4634146341463</v>
       </c>
       <c r="J1271">
         <v>137.7472433628319</v>
@@ -58061,7 +58061,7 @@
         <v>2</v>
       </c>
       <c r="I1308">
-        <v>125.71</v>
+        <v>153.3048780487805</v>
       </c>
       <c r="J1308">
         <v>111.7811084070796</v>
@@ -58430,7 +58430,7 @@
         <v>2</v>
       </c>
       <c r="I1317">
-        <v>156.21</v>
+        <v>190.5</v>
       </c>
       <c r="J1317">
         <v>139.2513517699115</v>
@@ -58512,7 +58512,7 @@
         <v>2</v>
       </c>
       <c r="I1319">
-        <v>144.48</v>
+        <v>176.1951219512195</v>
       </c>
       <c r="J1319">
         <v>128.6865663716814</v>
@@ -58553,7 +58553,7 @@
         <v>2</v>
       </c>
       <c r="I1320">
-        <v>178.84</v>
+        <v>218.0975609756098</v>
       </c>
       <c r="J1320">
         <v>159.6333716814159</v>
@@ -58635,7 +58635,7 @@
         <v>2</v>
       </c>
       <c r="I1322">
-        <v>178.84</v>
+        <v>218.0975609756098</v>
       </c>
       <c r="J1322">
         <v>159.6333716814159</v>
@@ -58758,7 +58758,7 @@
         <v>2</v>
       </c>
       <c r="I1325">
-        <v>178.84</v>
+        <v>218.0975609756098</v>
       </c>
       <c r="J1325">
         <v>159.6333716814159</v>
@@ -58919,7 +58919,7 @@
         <v>1392</v>
       </c>
       <c r="I1329">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1329">
         <v>121.8955619469027</v>
@@ -58957,7 +58957,7 @@
         <v>1392</v>
       </c>
       <c r="I1330">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1330">
         <v>121.8955619469027</v>
@@ -59162,7 +59162,7 @@
         <v>2</v>
       </c>
       <c r="I1335">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1335">
         <v>130.947232300885</v>
@@ -59203,7 +59203,7 @@
         <v>1</v>
       </c>
       <c r="I1336">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1336">
         <v>121.8955619469027</v>
@@ -59531,7 +59531,7 @@
         <v>1</v>
       </c>
       <c r="I1344">
-        <v>168.78</v>
+        <v>205.8292682926829</v>
       </c>
       <c r="J1344">
         <v>150.5726946902655</v>
@@ -60310,7 +60310,7 @@
         <v>3</v>
       </c>
       <c r="I1363">
-        <v>179.58</v>
+        <v>219</v>
       </c>
       <c r="J1363">
         <v>160.2998628318584</v>
@@ -60392,7 +60392,7 @@
         <v>1</v>
       </c>
       <c r="I1365">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1365">
         <v>121.8955619469027</v>
@@ -61048,7 +61048,7 @@
         <v>1</v>
       </c>
       <c r="I1381">
-        <v>127.39</v>
+        <v>155.3536585365854</v>
       </c>
       <c r="J1381">
         <v>113.2942234513275</v>
@@ -61332,7 +61332,7 @@
         <v>1</v>
       </c>
       <c r="I1388">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1388">
         <v>130.947232300885</v>
@@ -61373,7 +61373,7 @@
         <v>2</v>
       </c>
       <c r="I1389">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1389">
         <v>130.947232300885</v>
@@ -61742,7 +61742,7 @@
         <v>1</v>
       </c>
       <c r="I1398">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1398">
         <v>130.947232300885</v>
@@ -61824,7 +61824,7 @@
         <v>1</v>
       </c>
       <c r="I1400">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1400">
         <v>130.947232300885</v>
@@ -61988,7 +61988,7 @@
         <v>2</v>
       </c>
       <c r="I1404">
-        <v>149.51</v>
+        <v>182.3292682926829</v>
       </c>
       <c r="J1404">
         <v>133.2169048672566</v>
@@ -62726,7 +62726,7 @@
         <v>1</v>
       </c>
       <c r="I1422">
-        <v>146.99</v>
+        <v>179.2560975609756</v>
       </c>
       <c r="J1422">
         <v>130.947232300885</v>
@@ -62972,7 +62972,7 @@
         <v>1</v>
       </c>
       <c r="I1428">
-        <v>173.82</v>
+        <v>211.9756097560976</v>
       </c>
       <c r="J1428">
         <v>155.1120398230088</v>
@@ -63423,7 +63423,7 @@
         <v>2</v>
       </c>
       <c r="I1439">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1439">
         <v>121.8955619469027</v>
@@ -63505,7 +63505,7 @@
         <v>1</v>
       </c>
       <c r="I1441">
-        <v>136.94</v>
+        <v>167</v>
       </c>
       <c r="J1441">
         <v>121.8955619469027</v>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -7549,16 +7549,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J73">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K73">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -8779,16 +8779,16 @@
         <v>2771.768292682927</v>
       </c>
       <c r="J103">
-        <v>2021.129634955752</v>
+        <v>2906.273338549536</v>
       </c>
       <c r="K103">
-        <v>409.1129999999999</v>
+        <v>498.9182926829268</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>1612.016634955752</v>
+        <v>2407.35504586661</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -9763,16 +9763,16 @@
         <v>165.5853658536585</v>
       </c>
       <c r="J127">
-        <v>120.8507920353982</v>
+        <v>173.7532495143536</v>
       </c>
       <c r="K127">
-        <v>24.4404</v>
+        <v>29.80536585365854</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
       <c r="M127">
-        <v>96.41039203539823</v>
+        <v>143.947883660695</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -10255,16 +10255,16 @@
         <v>105.6707317073171</v>
       </c>
       <c r="J139">
-        <v>76.60118362831858</v>
+        <v>110.2463884092381</v>
       </c>
       <c r="K139">
-        <v>15.597</v>
+        <v>19.02073170731708</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
       <c r="M139">
-        <v>61.00418362831858</v>
+        <v>91.22565670192103</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -10583,16 +10583,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J147">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K147">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
       <c r="M147">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -10829,16 +10829,16 @@
         <v>241.219512195122</v>
       </c>
       <c r="J153">
-        <v>175.2686283185841</v>
+        <v>252.1621864882366</v>
       </c>
       <c r="K153">
-        <v>35.604</v>
+        <v>43.41951219512195</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
       <c r="M153">
-        <v>139.6646283185841</v>
+        <v>208.7426742931146</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -10911,16 +10911,16 @@
         <v>264.4878048780488</v>
       </c>
       <c r="J155">
-        <v>192.4532920353982</v>
+        <v>276.8255471616663</v>
       </c>
       <c r="K155">
-        <v>39.0384</v>
+        <v>47.60780487804878</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
       <c r="M155">
-        <v>153.4148920353982</v>
+        <v>229.2177422836176</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -10952,16 +10952,16 @@
         <v>264.4878048780488</v>
       </c>
       <c r="J156">
-        <v>192.4532920353982</v>
+        <v>276.8255471616663</v>
       </c>
       <c r="K156">
-        <v>39.0384</v>
+        <v>47.60780487804878</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
       <c r="M156">
-        <v>153.4148920353982</v>
+        <v>229.2177422836176</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -11485,16 +11485,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J169">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K169">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L169">
         <v>0</v>
       </c>
       <c r="M169">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -11813,16 +11813,16 @@
         <v>253.4878048780488</v>
       </c>
       <c r="J177">
-        <v>184.3293053097345</v>
+        <v>265.1660338873301</v>
       </c>
       <c r="K177">
-        <v>37.4148</v>
+        <v>45.62780487804879</v>
       </c>
       <c r="L177">
         <v>0</v>
       </c>
       <c r="M177">
-        <v>146.9145053097345</v>
+        <v>219.5382290092813</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -11854,16 +11854,16 @@
         <v>97.67073170731709</v>
       </c>
       <c r="J178">
-        <v>70.6928296460177</v>
+        <v>101.766742391539</v>
       </c>
       <c r="K178">
-        <v>14.4162</v>
+        <v>17.58073170731707</v>
       </c>
       <c r="L178">
         <v>0</v>
       </c>
       <c r="M178">
-        <v>56.2766296460177</v>
+        <v>84.1860106842219</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -11895,16 +11895,16 @@
         <v>168.0853658536586</v>
       </c>
       <c r="J179">
-        <v>122.6971526548673</v>
+        <v>176.4031388948846</v>
       </c>
       <c r="K179">
-        <v>24.8094</v>
+        <v>30.25536585365854</v>
       </c>
       <c r="L179">
         <v>0</v>
       </c>
       <c r="M179">
-        <v>97.88775265486726</v>
+        <v>146.147773041226</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -12018,16 +12018,16 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J182">
-        <v>103.4859955752212</v>
+        <v>148.8313630477013</v>
       </c>
       <c r="K182">
-        <v>20.97</v>
+        <v>25.57317073170732</v>
       </c>
       <c r="L182">
         <v>0</v>
       </c>
       <c r="M182">
-        <v>82.51599557522124</v>
+        <v>123.258192315994</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12917,16 +12917,16 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J204">
-        <v>109.0611039823009</v>
+        <v>156.8327363479387</v>
       </c>
       <c r="K204">
-        <v>22.0842</v>
+        <v>26.93195121951219</v>
       </c>
       <c r="L204">
         <v>0</v>
       </c>
       <c r="M204">
-        <v>86.97690398230088</v>
+        <v>129.9007851284265</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -12999,16 +12999,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J206">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K206">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
       <c r="M206">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -13040,16 +13040,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J207">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K207">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L207">
         <v>0</v>
       </c>
       <c r="M207">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -13081,16 +13081,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J208">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K208">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
       <c r="M208">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -13409,16 +13409,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J216">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K216">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L216">
         <v>0</v>
       </c>
       <c r="M216">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -13491,16 +13491,16 @@
         <v>166.4878048780488</v>
       </c>
       <c r="J218">
-        <v>121.5172831858407</v>
+        <v>174.709794949277</v>
       </c>
       <c r="K218">
-        <v>24.5736</v>
+        <v>29.96780487804878</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
       <c r="M218">
-        <v>96.94368318584071</v>
+        <v>144.7419900712282</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -13655,16 +13655,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J222">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K222">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
       <c r="M222">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -13696,16 +13696,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J223">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K223">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L223">
         <v>0</v>
       </c>
       <c r="M223">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -14024,16 +14024,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J231">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K231">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L231">
         <v>0</v>
       </c>
       <c r="M231">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -14188,16 +14188,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J235">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K235">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L235">
         <v>0</v>
       </c>
       <c r="M235">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -14557,16 +14557,16 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J244">
-        <v>105.2873230088496</v>
+        <v>151.4166209799266</v>
       </c>
       <c r="K244">
-        <v>21.33</v>
+        <v>26.01219512195122</v>
       </c>
       <c r="L244">
         <v>0</v>
       </c>
       <c r="M244">
-        <v>83.95732300884957</v>
+        <v>125.4044258579754</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -14926,16 +14926,16 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J253">
-        <v>109.0611039823009</v>
+        <v>156.8327363479387</v>
       </c>
       <c r="K253">
-        <v>22.0842</v>
+        <v>26.93195121951219</v>
       </c>
       <c r="L253">
         <v>0</v>
       </c>
       <c r="M253">
-        <v>86.97690398230088</v>
+        <v>129.9007851284265</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -15213,16 +15213,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J260">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K260">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L260">
         <v>0</v>
       </c>
       <c r="M260">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -15254,16 +15254,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J261">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K261">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L261">
         <v>0</v>
       </c>
       <c r="M261">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -15377,16 +15377,16 @@
         <v>192.0365853658537</v>
       </c>
       <c r="J264">
-        <v>140.3861880530974</v>
+        <v>201.7903717893374</v>
       </c>
       <c r="K264">
-        <v>28.3446</v>
+        <v>34.56658536585366</v>
       </c>
       <c r="L264">
         <v>0</v>
       </c>
       <c r="M264">
-        <v>112.0415880530974</v>
+        <v>167.2237864234837</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -15705,16 +15705,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J272">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K272">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
       <c r="M272">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -15951,16 +15951,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J278">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K278">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L278">
         <v>0</v>
       </c>
       <c r="M278">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -15992,16 +15992,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J279">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K279">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -16033,16 +16033,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J280">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K280">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L280">
         <v>0</v>
       </c>
       <c r="M280">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -16238,16 +16238,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J285">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K285">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L285">
         <v>0</v>
       </c>
       <c r="M285">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -16279,16 +16279,16 @@
         <v>140.8292682926829</v>
       </c>
       <c r="J286">
-        <v>102.5673185840708</v>
+        <v>147.5128815022664</v>
       </c>
       <c r="K286">
-        <v>20.7864</v>
+        <v>25.34926829268293</v>
       </c>
       <c r="L286">
         <v>0</v>
       </c>
       <c r="M286">
-        <v>81.7809185840708</v>
+        <v>122.1636132095834</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -16320,16 +16320,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J287">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K287">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L287">
         <v>0</v>
       </c>
       <c r="M287">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -16361,16 +16361,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J288">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K288">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L288">
         <v>0</v>
       </c>
       <c r="M288">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -17181,16 +17181,16 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J308">
-        <v>103.4859955752212</v>
+        <v>148.8313630477013</v>
       </c>
       <c r="K308">
-        <v>20.97</v>
+        <v>25.57317073170732</v>
       </c>
       <c r="L308">
         <v>0</v>
       </c>
       <c r="M308">
-        <v>82.51599557522124</v>
+        <v>123.258192315994</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -17263,16 +17263,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J310">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K310">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L310">
         <v>0</v>
       </c>
       <c r="M310">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -17301,16 +17301,16 @@
         <v>129.1829268292683</v>
       </c>
       <c r="J311">
-        <v>93.96598008849557</v>
+        <v>135.1682748758904</v>
       </c>
       <c r="K311">
-        <v>19.0674</v>
+        <v>23.25292682926829</v>
       </c>
       <c r="L311">
         <v>0</v>
       </c>
       <c r="M311">
-        <v>74.89858008849558</v>
+        <v>111.9153480466221</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -17339,16 +17339,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J312">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K312">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L312">
         <v>0</v>
       </c>
       <c r="M312">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -17377,16 +17377,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J313">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K313">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L313">
         <v>0</v>
       </c>
       <c r="M313">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -18428,16 +18428,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J339">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K339">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L339">
         <v>0</v>
       </c>
       <c r="M339">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -18548,16 +18548,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J342">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K342">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L342">
         <v>0</v>
       </c>
       <c r="M342">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -18586,16 +18586,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J343">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K343">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L343">
         <v>0</v>
       </c>
       <c r="M343">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -18832,16 +18832,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J349">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K349">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L349">
         <v>0</v>
       </c>
       <c r="M349">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -18873,16 +18873,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J350">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K350">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L350">
         <v>0</v>
       </c>
       <c r="M350">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -19242,16 +19242,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J359">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K359">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L359">
         <v>0</v>
       </c>
       <c r="M359">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -19283,16 +19283,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J360">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K360">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L360">
         <v>0</v>
       </c>
       <c r="M360">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -19526,16 +19526,16 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J366">
-        <v>104.5307654867257</v>
+        <v>150.330812648392</v>
       </c>
       <c r="K366">
-        <v>21.1788</v>
+        <v>25.82780487804878</v>
       </c>
       <c r="L366">
         <v>0</v>
       </c>
       <c r="M366">
-        <v>83.35196548672566</v>
+        <v>124.5030077703432</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -19640,16 +19640,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J369">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K369">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L369">
         <v>0</v>
       </c>
       <c r="M369">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -19678,16 +19678,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J370">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K370">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L370">
         <v>0</v>
       </c>
       <c r="M370">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -20129,16 +20129,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J381">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K381">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L381">
         <v>0</v>
       </c>
       <c r="M381">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -20211,16 +20211,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J383">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K383">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L383">
         <v>0</v>
       </c>
       <c r="M383">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -20457,16 +20457,16 @@
         <v>129.8048780487805</v>
       </c>
       <c r="J389">
-        <v>94.42531858407081</v>
+        <v>135.8275156486078</v>
       </c>
       <c r="K389">
-        <v>19.1592</v>
+        <v>23.36487804878049</v>
       </c>
       <c r="L389">
         <v>0</v>
       </c>
       <c r="M389">
-        <v>75.26611858407081</v>
+        <v>112.4626375998273</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -20659,16 +20659,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J394">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K394">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L394">
         <v>0</v>
       </c>
       <c r="M394">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -20864,16 +20864,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J399">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K399">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L399">
         <v>0</v>
       </c>
       <c r="M399">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -21268,16 +21268,16 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J409">
-        <v>109.0611039823009</v>
+        <v>156.8327363479387</v>
       </c>
       <c r="K409">
-        <v>22.0842</v>
+        <v>26.93195121951219</v>
       </c>
       <c r="L409">
         <v>0</v>
       </c>
       <c r="M409">
-        <v>86.97690398230088</v>
+        <v>129.9007851284265</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -21842,16 +21842,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J423">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K423">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L423">
         <v>0</v>
       </c>
       <c r="M423">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -21924,16 +21924,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J425">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K425">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L425">
         <v>0</v>
       </c>
       <c r="M425">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -22495,16 +22495,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J439">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K439">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L439">
         <v>0</v>
       </c>
       <c r="M439">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="440" spans="1:13">
@@ -22700,16 +22700,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J444">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K444">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L444">
         <v>0</v>
       </c>
       <c r="M444">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="445" spans="1:13">
@@ -22741,16 +22741,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J445">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K445">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L445">
         <v>0</v>
       </c>
       <c r="M445">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="446" spans="1:13">
@@ -23274,16 +23274,16 @@
         <v>160.3536585365854</v>
       </c>
       <c r="J458">
-        <v>116.9869446902655</v>
+        <v>168.2078712497303</v>
       </c>
       <c r="K458">
-        <v>23.6682</v>
+        <v>28.86365853658537</v>
       </c>
       <c r="L458">
         <v>0</v>
       </c>
       <c r="M458">
-        <v>93.31874469026549</v>
+        <v>139.3442127131449</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -23643,16 +23643,16 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J467">
-        <v>103.026657079646</v>
+        <v>148.1721222749838</v>
       </c>
       <c r="K467">
-        <v>20.8782</v>
+        <v>25.46121951219513</v>
       </c>
       <c r="L467">
         <v>0</v>
       </c>
       <c r="M467">
-        <v>82.14845707964602</v>
+        <v>122.7109027627887</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -24258,16 +24258,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J482">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K482">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L482">
         <v>0</v>
       </c>
       <c r="M482">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="483" spans="1:13">
@@ -24955,16 +24955,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J499">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K499">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L499">
         <v>0</v>
       </c>
       <c r="M499">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="500" spans="1:13">
@@ -25447,16 +25447,16 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J511">
-        <v>105.2873230088496</v>
+        <v>151.4166209799266</v>
       </c>
       <c r="K511">
-        <v>21.33</v>
+        <v>26.01219512195122</v>
       </c>
       <c r="L511">
         <v>0</v>
       </c>
       <c r="M511">
-        <v>83.95732300884957</v>
+        <v>125.4044258579754</v>
       </c>
     </row>
     <row r="512" spans="1:13">
@@ -26018,16 +26018,16 @@
         <v>458.0487804878049</v>
       </c>
       <c r="J525">
-        <v>333.9653097345133</v>
+        <v>480.2317051586446</v>
       </c>
       <c r="K525">
-        <v>67.608</v>
+        <v>82.44878048780488</v>
       </c>
       <c r="L525">
         <v>0</v>
       </c>
       <c r="M525">
-        <v>266.3573097345133</v>
+        <v>397.7829246708397</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -26141,16 +26141,16 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J528">
-        <v>92.16465265486727</v>
+        <v>132.5830169436651</v>
       </c>
       <c r="K528">
-        <v>18.7074</v>
+        <v>22.81390243902439</v>
       </c>
       <c r="L528">
         <v>0</v>
       </c>
       <c r="M528">
-        <v>73.45725265486726</v>
+        <v>109.7691145046407</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -26182,16 +26182,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J529">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K529">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L529">
         <v>0</v>
       </c>
       <c r="M529">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -26264,16 +26264,16 @@
         <v>160.3536585365854</v>
       </c>
       <c r="J531">
-        <v>116.9869446902655</v>
+        <v>168.2078712497303</v>
       </c>
       <c r="K531">
-        <v>23.6682</v>
+        <v>28.86365853658537</v>
       </c>
       <c r="L531">
         <v>0</v>
       </c>
       <c r="M531">
-        <v>93.31874469026549</v>
+        <v>139.3442127131449</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -27043,16 +27043,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J550">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K550">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L550">
         <v>0</v>
       </c>
       <c r="M550">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="551" spans="1:13">
@@ -27084,16 +27084,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J551">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K551">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L551">
         <v>0</v>
       </c>
       <c r="M551">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="552" spans="1:13">
@@ -27125,16 +27125,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J552">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K552">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L552">
         <v>0</v>
       </c>
       <c r="M552">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="553" spans="1:13">
@@ -27166,16 +27166,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J553">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K553">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L553">
         <v>0</v>
       </c>
       <c r="M553">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="554" spans="1:13">
@@ -27371,16 +27371,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J558">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K558">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L558">
         <v>0</v>
       </c>
       <c r="M558">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="559" spans="1:13">
@@ -27535,16 +27535,16 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J562">
-        <v>103.4859955752212</v>
+        <v>148.8313630477013</v>
       </c>
       <c r="K562">
-        <v>20.97</v>
+        <v>25.57317073170732</v>
       </c>
       <c r="L562">
         <v>0</v>
       </c>
       <c r="M562">
-        <v>82.51599557522124</v>
+        <v>123.258192315994</v>
       </c>
     </row>
     <row r="563" spans="1:13">
@@ -27576,16 +27576,16 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J563">
-        <v>103.4859955752212</v>
+        <v>148.8313630477013</v>
       </c>
       <c r="K563">
-        <v>20.97</v>
+        <v>25.57317073170732</v>
       </c>
       <c r="L563">
         <v>0</v>
       </c>
       <c r="M563">
-        <v>82.51599557522124</v>
+        <v>123.258192315994</v>
       </c>
     </row>
     <row r="564" spans="1:13">
@@ -27614,16 +27614,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J564">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K564">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L564">
         <v>0</v>
       </c>
       <c r="M564">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="565" spans="1:13">
@@ -28393,16 +28393,16 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J583">
-        <v>103.4859955752212</v>
+        <v>148.8313630477013</v>
       </c>
       <c r="K583">
-        <v>20.97</v>
+        <v>25.57317073170732</v>
       </c>
       <c r="L583">
         <v>0</v>
       </c>
       <c r="M583">
-        <v>82.51599557522124</v>
+        <v>123.258192315994</v>
       </c>
     </row>
     <row r="584" spans="1:13">
@@ -28885,16 +28885,16 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J595">
-        <v>109.0611039823009</v>
+        <v>156.8327363479387</v>
       </c>
       <c r="K595">
-        <v>22.0842</v>
+        <v>26.93195121951219</v>
       </c>
       <c r="L595">
         <v>0</v>
       </c>
       <c r="M595">
-        <v>86.97690398230088</v>
+        <v>129.9007851284265</v>
       </c>
     </row>
     <row r="596" spans="1:13">
@@ -29377,16 +29377,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J607">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K607">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L607">
         <v>0</v>
       </c>
       <c r="M607">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="608" spans="1:13">
@@ -29705,16 +29705,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J615">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K615">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L615">
         <v>0</v>
       </c>
       <c r="M615">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="616" spans="1:13">
@@ -29828,16 +29828,16 @@
         <v>172</v>
       </c>
       <c r="J618">
-        <v>125.5882831858407</v>
+        <v>180.5524778761062</v>
       </c>
       <c r="K618">
-        <v>25.3872</v>
+        <v>30.96</v>
       </c>
       <c r="L618">
         <v>0</v>
       </c>
       <c r="M618">
-        <v>100.2010831858407</v>
+        <v>149.5924778761062</v>
       </c>
     </row>
     <row r="619" spans="1:13">
@@ -30238,16 +30238,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J628">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K628">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L628">
         <v>0</v>
       </c>
       <c r="M628">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="629" spans="1:13">
@@ -30279,16 +30279,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J629">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K629">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L629">
         <v>0</v>
       </c>
       <c r="M629">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="630" spans="1:13">
@@ -30320,16 +30320,16 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J630">
-        <v>105.2873230088496</v>
+        <v>151.4166209799266</v>
       </c>
       <c r="K630">
-        <v>21.33</v>
+        <v>26.01219512195122</v>
       </c>
       <c r="L630">
         <v>0</v>
       </c>
       <c r="M630">
-        <v>83.95732300884957</v>
+        <v>125.4044258579754</v>
       </c>
     </row>
     <row r="631" spans="1:13">
@@ -30935,16 +30935,16 @@
         <v>96.47560975609757</v>
       </c>
       <c r="J645">
-        <v>69.81017920353982</v>
+        <v>100.4999660047486</v>
       </c>
       <c r="K645">
-        <v>14.2398</v>
+        <v>17.36560975609756</v>
       </c>
       <c r="L645">
         <v>0</v>
       </c>
       <c r="M645">
-        <v>55.57037920353982</v>
+        <v>83.13435624865099</v>
       </c>
     </row>
     <row r="646" spans="1:13">
@@ -31181,16 +31181,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J651">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K651">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L651">
         <v>0</v>
       </c>
       <c r="M651">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="652" spans="1:13">
@@ -32206,16 +32206,16 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J676">
-        <v>105.2873230088496</v>
+        <v>151.4166209799266</v>
       </c>
       <c r="K676">
-        <v>21.33</v>
+        <v>26.01219512195122</v>
       </c>
       <c r="L676">
         <v>0</v>
       </c>
       <c r="M676">
-        <v>83.95732300884957</v>
+        <v>125.4044258579754</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -32244,16 +32244,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J677">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K677">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L677">
         <v>0</v>
       </c>
       <c r="M677">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="678" spans="1:13">
@@ -32572,16 +32572,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J685">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K685">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L685">
         <v>0</v>
       </c>
       <c r="M685">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="686" spans="1:13">
@@ -32941,16 +32941,16 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J694">
-        <v>96.22664601769911</v>
+        <v>138.4127735808332</v>
       </c>
       <c r="K694">
-        <v>19.5192</v>
+        <v>23.80390243902439</v>
       </c>
       <c r="L694">
         <v>0</v>
       </c>
       <c r="M694">
-        <v>76.70744601769911</v>
+        <v>114.6088711418088</v>
       </c>
     </row>
     <row r="695" spans="1:13">
@@ -33146,16 +33146,16 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J699">
-        <v>105.2873230088496</v>
+        <v>151.4166209799266</v>
       </c>
       <c r="K699">
-        <v>21.33</v>
+        <v>26.01219512195122</v>
       </c>
       <c r="L699">
         <v>0</v>
       </c>
       <c r="M699">
-        <v>83.95732300884957</v>
+        <v>125.4044258579754</v>
       </c>
     </row>
     <row r="700" spans="1:13">
@@ -33679,16 +33679,16 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J712">
-        <v>120.3824469026549</v>
+        <v>173.081082451975</v>
       </c>
       <c r="K712">
-        <v>24.3468</v>
+        <v>29.69121951219512</v>
       </c>
       <c r="L712">
         <v>0</v>
       </c>
       <c r="M712">
-        <v>96.03564690265486</v>
+        <v>143.3898629397798</v>
       </c>
     </row>
     <row r="713" spans="1:13">
@@ -33761,16 +33761,16 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J714">
-        <v>120.3824469026549</v>
+        <v>173.081082451975</v>
       </c>
       <c r="K714">
-        <v>24.3468</v>
+        <v>29.69121951219512</v>
       </c>
       <c r="L714">
         <v>0</v>
       </c>
       <c r="M714">
-        <v>96.03564690265486</v>
+        <v>143.3898629397798</v>
       </c>
     </row>
     <row r="715" spans="1:13">
@@ -34048,16 +34048,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J721">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K721">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L721">
         <v>0</v>
       </c>
       <c r="M721">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="722" spans="1:13">
@@ -34089,16 +34089,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J722">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K722">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L722">
         <v>0</v>
       </c>
       <c r="M722">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="723" spans="1:13">
@@ -34130,16 +34130,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J723">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K723">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L723">
         <v>0</v>
       </c>
       <c r="M723">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="724" spans="1:13">
@@ -34253,16 +34253,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J726">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K726">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L726">
         <v>0</v>
       </c>
       <c r="M726">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="727" spans="1:13">
@@ -34537,16 +34537,16 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J733">
-        <v>111.3217699115044</v>
+        <v>160.0772350528815</v>
       </c>
       <c r="K733">
-        <v>22.536</v>
+        <v>27.48292682926829</v>
       </c>
       <c r="L733">
         <v>0</v>
       </c>
       <c r="M733">
-        <v>88.78576991150443</v>
+        <v>132.5943082236132</v>
       </c>
     </row>
     <row r="734" spans="1:13">
@@ -34701,16 +34701,16 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J737">
-        <v>120.3824469026549</v>
+        <v>173.081082451975</v>
       </c>
       <c r="K737">
-        <v>24.3468</v>
+        <v>29.69121951219512</v>
       </c>
       <c r="L737">
         <v>0</v>
       </c>
       <c r="M737">
-        <v>96.03564690265486</v>
+        <v>143.3898629397798</v>
       </c>
     </row>
     <row r="738" spans="1:13">
@@ -34865,16 +34865,16 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J741">
-        <v>120.0942345132743</v>
+        <v>172.6674411828189</v>
       </c>
       <c r="K741">
-        <v>24.2892</v>
+        <v>29.6209756097561</v>
       </c>
       <c r="L741">
         <v>0</v>
       </c>
       <c r="M741">
-        <v>95.80503451327434</v>
+        <v>143.0464655730628</v>
       </c>
     </row>
     <row r="742" spans="1:13">
@@ -34947,16 +34947,16 @@
         <v>120.609756097561</v>
       </c>
       <c r="J743">
-        <v>87.63431415929205</v>
+        <v>126.0810932441183</v>
       </c>
       <c r="K743">
-        <v>17.802</v>
+        <v>21.70975609756098</v>
       </c>
       <c r="L743">
         <v>0</v>
       </c>
       <c r="M743">
-        <v>69.83231415929205</v>
+        <v>104.3713371465573</v>
       </c>
     </row>
     <row r="744" spans="1:13">
@@ -35357,16 +35357,16 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J753">
-        <v>120.3824469026549</v>
+        <v>173.081082451975</v>
       </c>
       <c r="K753">
-        <v>24.3468</v>
+        <v>29.69121951219512</v>
       </c>
       <c r="L753">
         <v>0</v>
       </c>
       <c r="M753">
-        <v>96.03564690265486</v>
+        <v>143.3898629397798</v>
       </c>
     </row>
     <row r="754" spans="1:13">
@@ -35808,16 +35808,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J764">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K764">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L764">
         <v>0</v>
       </c>
       <c r="M764">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="765" spans="1:13">
@@ -35972,16 +35972,16 @@
         <v>173.7560975609756</v>
       </c>
       <c r="J768">
-        <v>126.8852389380531</v>
+        <v>182.4138635873085</v>
       </c>
       <c r="K768">
-        <v>25.6464</v>
+        <v>31.27609756097561</v>
       </c>
       <c r="L768">
         <v>0</v>
       </c>
       <c r="M768">
-        <v>101.2388389380531</v>
+        <v>151.1377660263329</v>
       </c>
     </row>
     <row r="769" spans="1:13">
@@ -36054,16 +36054,16 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J770">
-        <v>124.1562278761062</v>
+        <v>178.497197819987</v>
       </c>
       <c r="K770">
-        <v>25.101</v>
+        <v>30.6109756097561</v>
       </c>
       <c r="L770">
         <v>0</v>
       </c>
       <c r="M770">
-        <v>99.05522787610619</v>
+        <v>147.8862222102309</v>
       </c>
     </row>
     <row r="771" spans="1:13">
@@ -36499,16 +36499,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J781">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K781">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L781">
         <v>0</v>
       </c>
       <c r="M781">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="782" spans="1:13">
@@ -36663,16 +36663,16 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J785">
-        <v>133.2169048672566</v>
+        <v>191.5010452190805</v>
       </c>
       <c r="K785">
-        <v>26.9118</v>
+        <v>32.81926829268293</v>
       </c>
       <c r="L785">
         <v>0</v>
       </c>
       <c r="M785">
-        <v>106.3051048672566</v>
+        <v>158.6817769263976</v>
       </c>
     </row>
     <row r="786" spans="1:13">
@@ -36991,16 +36991,16 @@
         <v>163.9268292682927</v>
       </c>
       <c r="J793">
-        <v>119.625889380531</v>
+        <v>171.9952741204403</v>
       </c>
       <c r="K793">
-        <v>24.1956</v>
+        <v>29.50682926829268</v>
       </c>
       <c r="L793">
         <v>0</v>
       </c>
       <c r="M793">
-        <v>95.43028938053098</v>
+        <v>142.4884448521476</v>
       </c>
     </row>
     <row r="794" spans="1:13">
@@ -37442,16 +37442,16 @@
         <v>169.6707317073171</v>
       </c>
       <c r="J804">
-        <v>123.8680154867257</v>
+        <v>178.083556550831</v>
       </c>
       <c r="K804">
-        <v>25.0434</v>
+        <v>30.54073170731708</v>
       </c>
       <c r="L804">
         <v>0</v>
       </c>
       <c r="M804">
-        <v>98.82461548672566</v>
+        <v>147.542824843514</v>
       </c>
     </row>
     <row r="805" spans="1:13">
@@ -37483,16 +37483,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J805">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K805">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L805">
         <v>0</v>
       </c>
       <c r="M805">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="806" spans="1:13">
@@ -37688,16 +37688,16 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J810">
-        <v>115.8431017699115</v>
+        <v>166.5662324627671</v>
       </c>
       <c r="K810">
-        <v>23.4396</v>
+        <v>28.58487804878049</v>
       </c>
       <c r="L810">
         <v>0</v>
       </c>
       <c r="M810">
-        <v>92.40350176991151</v>
+        <v>137.9813544139867</v>
       </c>
     </row>
     <row r="811" spans="1:13">
@@ -37729,16 +37729,16 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J811">
-        <v>106.8004380530974</v>
+        <v>153.5882376429959</v>
       </c>
       <c r="K811">
-        <v>21.6324</v>
+        <v>26.3809756097561</v>
       </c>
       <c r="L811">
         <v>0</v>
       </c>
       <c r="M811">
-        <v>85.16803805309735</v>
+        <v>127.2072620332398</v>
       </c>
     </row>
     <row r="812" spans="1:13">
@@ -38221,16 +38221,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J823">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K823">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L823">
         <v>0</v>
       </c>
       <c r="M823">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="824" spans="1:13">
@@ -38344,16 +38344,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J826">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K826">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L826">
         <v>0</v>
       </c>
       <c r="M826">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="827" spans="1:13">
@@ -38385,16 +38385,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J827">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K827">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L827">
         <v>0</v>
       </c>
       <c r="M827">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="828" spans="1:13">
@@ -38508,16 +38508,16 @@
         <v>167</v>
       </c>
       <c r="J830">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K830">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L830">
         <v>0</v>
       </c>
       <c r="M830">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="831" spans="1:13">
@@ -38713,16 +38713,16 @@
         <v>163.9268292682927</v>
       </c>
       <c r="J835">
-        <v>119.625889380531</v>
+        <v>171.9952741204403</v>
       </c>
       <c r="K835">
-        <v>24.1956</v>
+        <v>29.50682926829268</v>
       </c>
       <c r="L835">
         <v>0</v>
       </c>
       <c r="M835">
-        <v>95.43028938053098</v>
+        <v>142.4884448521476</v>
       </c>
     </row>
     <row r="836" spans="1:13">
@@ -39164,16 +39164,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J846">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K846">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L846">
         <v>0</v>
       </c>
       <c r="M846">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="847" spans="1:13">
@@ -39205,16 +39205,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J847">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K847">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L847">
         <v>0</v>
       </c>
       <c r="M847">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="848" spans="1:13">
@@ -39328,16 +39328,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J850">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K850">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L850">
         <v>0</v>
       </c>
       <c r="M850">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="851" spans="1:13">
@@ -39448,16 +39448,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J853">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K853">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L853">
         <v>0</v>
       </c>
       <c r="M853">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="854" spans="1:13">
@@ -39486,16 +39486,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J854">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K854">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L854">
         <v>0</v>
       </c>
       <c r="M854">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="855" spans="1:13">
@@ -39688,16 +39688,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J859">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K859">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L859">
         <v>0</v>
       </c>
       <c r="M859">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="860" spans="1:13">
@@ -39811,16 +39811,16 @@
         <v>190.5</v>
       </c>
       <c r="J862">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K862">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L862">
         <v>0</v>
       </c>
       <c r="M862">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="863" spans="1:13">
@@ -40098,16 +40098,16 @@
         <v>170.3536585365854</v>
       </c>
       <c r="J869">
-        <v>124.3723871681416</v>
+        <v>178.8074287718541</v>
       </c>
       <c r="K869">
-        <v>25.1442</v>
+        <v>30.66365853658537</v>
       </c>
       <c r="L869">
         <v>0</v>
       </c>
       <c r="M869">
-        <v>99.22818716814159</v>
+        <v>148.1437702352688</v>
       </c>
     </row>
     <row r="870" spans="1:13">
@@ -40139,16 +40139,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J870">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K870">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L870">
         <v>0</v>
       </c>
       <c r="M870">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="871" spans="1:13">
@@ -40303,16 +40303,16 @@
         <v>167</v>
       </c>
       <c r="J874">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K874">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L874">
         <v>0</v>
       </c>
       <c r="M874">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="875" spans="1:13">
@@ -40549,16 +40549,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J880">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K880">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L880">
         <v>0</v>
       </c>
       <c r="M880">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="881" spans="1:13">
@@ -40713,16 +40713,16 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J884">
-        <v>115.8431017699115</v>
+        <v>166.5662324627671</v>
       </c>
       <c r="K884">
-        <v>23.4396</v>
+        <v>28.58487804878049</v>
       </c>
       <c r="L884">
         <v>0</v>
       </c>
       <c r="M884">
-        <v>92.40350176991151</v>
+        <v>137.9813544139867</v>
       </c>
     </row>
     <row r="885" spans="1:13">
@@ -41082,16 +41082,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J893">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K893">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L893">
         <v>0</v>
       </c>
       <c r="M893">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="894" spans="1:13">
@@ -41205,16 +41205,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J896">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K896">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L896">
         <v>0</v>
       </c>
       <c r="M896">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="897" spans="1:13">
@@ -41246,16 +41246,16 @@
         <v>167</v>
       </c>
       <c r="J897">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K897">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L897">
         <v>0</v>
       </c>
       <c r="M897">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="898" spans="1:13">
@@ -41656,16 +41656,16 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J907">
-        <v>124.1562278761062</v>
+        <v>178.497197819987</v>
       </c>
       <c r="K907">
-        <v>25.101</v>
+        <v>30.6109756097561</v>
       </c>
       <c r="L907">
         <v>0</v>
       </c>
       <c r="M907">
-        <v>99.05522787610619</v>
+        <v>147.8862222102309</v>
       </c>
     </row>
     <row r="908" spans="1:13">
@@ -41820,16 +41820,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J911">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K911">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L911">
         <v>0</v>
       </c>
       <c r="M911">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="912" spans="1:13">
@@ -41943,16 +41943,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J914">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K914">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L914">
         <v>0</v>
       </c>
       <c r="M914">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="915" spans="1:13">
@@ -42189,16 +42189,16 @@
         <v>167</v>
       </c>
       <c r="J920">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K920">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L920">
         <v>0</v>
       </c>
       <c r="M920">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="921" spans="1:13">
@@ -42845,16 +42845,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J936">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K936">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L936">
         <v>0</v>
       </c>
       <c r="M936">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="937" spans="1:13">
@@ -43460,16 +43460,16 @@
         <v>110.7804878048781</v>
       </c>
       <c r="J951">
-        <v>80.37496460176993</v>
+        <v>115.6625037772502</v>
       </c>
       <c r="K951">
-        <v>16.3512</v>
+        <v>19.94048780487805</v>
       </c>
       <c r="L951">
         <v>0</v>
       </c>
       <c r="M951">
-        <v>64.02376460176993</v>
+        <v>95.72201597237213</v>
       </c>
     </row>
     <row r="952" spans="1:13">
@@ -43788,16 +43788,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J959">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K959">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L959">
         <v>0</v>
       </c>
       <c r="M959">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="960" spans="1:13">
@@ -43952,16 +43952,16 @@
         <v>167</v>
       </c>
       <c r="J963">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K963">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L963">
         <v>0</v>
       </c>
       <c r="M963">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="964" spans="1:13">
@@ -44649,16 +44649,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J980">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K980">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L980">
         <v>0</v>
       </c>
       <c r="M980">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="981" spans="1:13">
@@ -44731,16 +44731,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J982">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K982">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L982">
         <v>0</v>
       </c>
       <c r="M982">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="983" spans="1:13">
@@ -44892,16 +44892,16 @@
         <v>167</v>
       </c>
       <c r="J986">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K986">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L986">
         <v>0</v>
       </c>
       <c r="M986">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="987" spans="1:13">
@@ -45384,16 +45384,16 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J998">
-        <v>97.73976106194692</v>
+        <v>140.5843902439025</v>
       </c>
       <c r="K998">
-        <v>19.8216</v>
+        <v>24.17268292682927</v>
       </c>
       <c r="L998">
         <v>0</v>
       </c>
       <c r="M998">
-        <v>77.91816106194692</v>
+        <v>116.4117073170732</v>
       </c>
     </row>
     <row r="999" spans="1:13">
@@ -45955,16 +45955,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1012">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1012">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1012">
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1013" spans="1:13">
@@ -46119,16 +46119,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1016">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1016">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1016">
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1017" spans="1:13">
@@ -46283,16 +46283,16 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J1020">
-        <v>106.8004380530974</v>
+        <v>153.5882376429959</v>
       </c>
       <c r="K1020">
-        <v>21.6324</v>
+        <v>26.3809756097561</v>
       </c>
       <c r="L1020">
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>85.16803805309735</v>
+        <v>127.2072620332398</v>
       </c>
     </row>
     <row r="1021" spans="1:13">
@@ -46693,16 +46693,16 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J1030">
-        <v>124.1562278761062</v>
+        <v>178.497197819987</v>
       </c>
       <c r="K1030">
-        <v>25.101</v>
+        <v>30.6109756097561</v>
       </c>
       <c r="L1030">
         <v>0</v>
       </c>
       <c r="M1030">
-        <v>99.05522787610619</v>
+        <v>147.8862222102309</v>
       </c>
     </row>
     <row r="1031" spans="1:13">
@@ -46857,16 +46857,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1034">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1034">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1034">
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1035" spans="1:13">
@@ -46898,16 +46898,16 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J1035">
-        <v>97.73976106194692</v>
+        <v>140.5843902439025</v>
       </c>
       <c r="K1035">
-        <v>19.8216</v>
+        <v>24.17268292682927</v>
       </c>
       <c r="L1035">
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>77.91816106194692</v>
+        <v>116.4117073170732</v>
       </c>
     </row>
     <row r="1036" spans="1:13">
@@ -47267,16 +47267,16 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J1044">
-        <v>97.73976106194692</v>
+        <v>140.5843902439025</v>
       </c>
       <c r="K1044">
-        <v>19.8216</v>
+        <v>24.17268292682927</v>
       </c>
       <c r="L1044">
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>77.91816106194692</v>
+        <v>116.4117073170732</v>
       </c>
     </row>
     <row r="1045" spans="1:13">
@@ -47636,16 +47636,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1053">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K1053">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L1053">
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="1054" spans="1:13">
@@ -47800,16 +47800,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1057">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K1057">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L1057">
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="1058" spans="1:13">
@@ -47838,16 +47838,16 @@
         <v>167</v>
       </c>
       <c r="J1058">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1058">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1058">
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1059" spans="1:13">
@@ -47920,16 +47920,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1060">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1060">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1060">
         <v>0</v>
       </c>
       <c r="M1060">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1061" spans="1:13">
@@ -48084,16 +48084,16 @@
         <v>190.5</v>
       </c>
       <c r="J1064">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K1064">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L1064">
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="1065" spans="1:13">
@@ -48699,16 +48699,16 @@
         <v>167</v>
       </c>
       <c r="J1079">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1079">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1079">
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1080" spans="1:13">
@@ -48822,16 +48822,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1082">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1082">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1082">
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1083" spans="1:13">
@@ -49150,16 +49150,16 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J1090">
-        <v>115.8431017699115</v>
+        <v>166.5662324627671</v>
       </c>
       <c r="K1090">
-        <v>23.4396</v>
+        <v>28.58487804878049</v>
       </c>
       <c r="L1090">
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>92.40350176991151</v>
+        <v>137.9813544139867</v>
       </c>
     </row>
     <row r="1091" spans="1:13">
@@ -49396,16 +49396,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1096">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K1096">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L1096">
         <v>0</v>
       </c>
       <c r="M1096">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="1097" spans="1:13">
@@ -49434,16 +49434,16 @@
         <v>167</v>
       </c>
       <c r="J1097">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1097">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1097">
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1098" spans="1:13">
@@ -49472,16 +49472,16 @@
         <v>167</v>
       </c>
       <c r="J1098">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1098">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1098">
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1099" spans="1:13">
@@ -49510,16 +49510,16 @@
         <v>167</v>
       </c>
       <c r="J1099">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1099">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1099">
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1100" spans="1:13">
@@ -49674,16 +49674,16 @@
         <v>190.5</v>
       </c>
       <c r="J1103">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K1103">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L1103">
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="1104" spans="1:13">
@@ -50289,16 +50289,16 @@
         <v>167</v>
       </c>
       <c r="J1118">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1118">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1118">
         <v>0</v>
       </c>
       <c r="M1118">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1119" spans="1:13">
@@ -50371,16 +50371,16 @@
         <v>167</v>
       </c>
       <c r="J1120">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1120">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1120">
         <v>0</v>
       </c>
       <c r="M1120">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1121" spans="1:13">
@@ -50576,16 +50576,16 @@
         <v>167</v>
       </c>
       <c r="J1125">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1125">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1125">
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1126" spans="1:13">
@@ -50658,16 +50658,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1127">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1127">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1127">
         <v>0</v>
       </c>
       <c r="M1127">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1128" spans="1:13">
@@ -50781,16 +50781,16 @@
         <v>122.0243902439024</v>
       </c>
       <c r="J1130">
-        <v>88.67908407079646</v>
+        <v>127.580542844809</v>
       </c>
       <c r="K1130">
-        <v>18.0108</v>
+        <v>21.96439024390244</v>
       </c>
       <c r="L1130">
         <v>0</v>
       </c>
       <c r="M1130">
-        <v>70.66828407079646</v>
+        <v>105.6161526009066</v>
       </c>
     </row>
     <row r="1131" spans="1:13">
@@ -50822,16 +50822,16 @@
         <v>122.0243902439024</v>
       </c>
       <c r="J1131">
-        <v>88.67908407079646</v>
+        <v>127.580542844809</v>
       </c>
       <c r="K1131">
-        <v>18.0108</v>
+        <v>21.96439024390244</v>
       </c>
       <c r="L1131">
         <v>0</v>
       </c>
       <c r="M1131">
-        <v>70.66828407079646</v>
+        <v>105.6161526009066</v>
       </c>
     </row>
     <row r="1132" spans="1:13">
@@ -50986,16 +50986,16 @@
         <v>325.8170731707318</v>
       </c>
       <c r="J1135">
-        <v>237.7476703539823</v>
+        <v>341.8318578674725</v>
       </c>
       <c r="K1135">
-        <v>48.0906</v>
+        <v>58.64707317073172</v>
       </c>
       <c r="L1135">
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>189.6570703539823</v>
+        <v>283.1847846967408</v>
       </c>
     </row>
     <row r="1136" spans="1:13">
@@ -51191,16 +51191,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1140">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K1140">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L1140">
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="1141" spans="1:13">
@@ -51232,16 +51232,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1141">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K1141">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L1141">
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="1142" spans="1:13">
@@ -51598,16 +51598,16 @@
         <v>167</v>
       </c>
       <c r="J1150">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1150">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1150">
         <v>0</v>
       </c>
       <c r="M1150">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1151" spans="1:13">
@@ -51762,16 +51762,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1154">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1154">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1154">
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1155" spans="1:13">
@@ -52254,16 +52254,16 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1166">
-        <v>104.2425530973451</v>
+        <v>149.917171379236</v>
       </c>
       <c r="K1166">
-        <v>21.1212</v>
+        <v>25.75756097560976</v>
       </c>
       <c r="L1166">
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>83.12135309734514</v>
+        <v>124.1596104036262</v>
       </c>
     </row>
     <row r="1167" spans="1:13">
@@ -52664,16 +52664,16 @@
         <v>167</v>
       </c>
       <c r="J1176">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1176">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1176">
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1177" spans="1:13">
@@ -53033,16 +53033,16 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J1185">
-        <v>106.8004380530974</v>
+        <v>153.5882376429959</v>
       </c>
       <c r="K1185">
-        <v>21.6324</v>
+        <v>26.3809756097561</v>
       </c>
       <c r="L1185">
         <v>0</v>
       </c>
       <c r="M1185">
-        <v>85.16803805309735</v>
+        <v>127.2072620332398</v>
       </c>
     </row>
     <row r="1186" spans="1:13">
@@ -53566,16 +53566,16 @@
         <v>169.6707317073171</v>
       </c>
       <c r="J1198">
-        <v>123.8680154867257</v>
+        <v>178.083556550831</v>
       </c>
       <c r="K1198">
-        <v>25.0434</v>
+        <v>30.54073170731708</v>
       </c>
       <c r="L1198">
         <v>0</v>
       </c>
       <c r="M1198">
-        <v>98.82461548672566</v>
+        <v>147.542824843514</v>
       </c>
     </row>
     <row r="1199" spans="1:13">
@@ -53604,16 +53604,16 @@
         <v>190.5</v>
       </c>
       <c r="J1199">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K1199">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L1199">
         <v>0</v>
       </c>
       <c r="M1199">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="1200" spans="1:13">
@@ -53642,16 +53642,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1200">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1200">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1200">
         <v>0</v>
       </c>
       <c r="M1200">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1201" spans="1:13">
@@ -53724,16 +53724,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1202">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1202">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1202">
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1203" spans="1:13">
@@ -53765,16 +53765,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1203">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1203">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1203">
         <v>0</v>
       </c>
       <c r="M1203">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1204" spans="1:13">
@@ -53847,16 +53847,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1205">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1205">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1205">
         <v>0</v>
       </c>
       <c r="M1205">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1206" spans="1:13">
@@ -54421,16 +54421,16 @@
         <v>209.4268292682927</v>
       </c>
       <c r="J1219">
-        <v>153.2296526548672</v>
+        <v>220.2232608461041</v>
       </c>
       <c r="K1219">
-        <v>30.9114</v>
+        <v>37.69682926829268</v>
       </c>
       <c r="L1219">
         <v>0</v>
       </c>
       <c r="M1219">
-        <v>122.3182526548672</v>
+        <v>182.5264315778114</v>
       </c>
     </row>
     <row r="1220" spans="1:13">
@@ -54623,16 +54623,16 @@
         <v>167</v>
       </c>
       <c r="J1224">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1224">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1224">
         <v>0</v>
       </c>
       <c r="M1224">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1225" spans="1:13">
@@ -54787,16 +54787,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1228">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1228">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1228">
         <v>0</v>
       </c>
       <c r="M1228">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1229" spans="1:13">
@@ -55197,16 +55197,16 @@
         <v>173.7560975609756</v>
       </c>
       <c r="J1238">
-        <v>126.8852389380531</v>
+        <v>182.4138635873085</v>
       </c>
       <c r="K1238">
-        <v>25.6464</v>
+        <v>31.27609756097561</v>
       </c>
       <c r="L1238">
         <v>0</v>
       </c>
       <c r="M1238">
-        <v>101.2388389380531</v>
+        <v>151.1377660263329</v>
       </c>
     </row>
     <row r="1239" spans="1:13">
@@ -55320,16 +55320,16 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J1241">
-        <v>133.2169048672566</v>
+        <v>191.5010452190805</v>
       </c>
       <c r="K1241">
-        <v>26.9118</v>
+        <v>32.81926829268293</v>
       </c>
       <c r="L1241">
         <v>0</v>
       </c>
       <c r="M1241">
-        <v>106.3051048672566</v>
+        <v>158.6817769263976</v>
       </c>
     </row>
     <row r="1242" spans="1:13">
@@ -55358,16 +55358,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1242">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1242">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1242">
         <v>0</v>
       </c>
       <c r="M1242">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1243" spans="1:13">
@@ -55522,16 +55522,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1246">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1246">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1246">
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1247" spans="1:13">
@@ -55645,16 +55645,16 @@
         <v>190.5</v>
       </c>
       <c r="J1249">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K1249">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L1249">
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="1250" spans="1:13">
@@ -56342,16 +56342,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1266">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1266">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1266">
         <v>0</v>
       </c>
       <c r="M1266">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1267" spans="1:13">
@@ -56383,16 +56383,16 @@
         <v>167</v>
       </c>
       <c r="J1267">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1267">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1267">
         <v>0</v>
       </c>
       <c r="M1267">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1268" spans="1:13">
@@ -56547,16 +56547,16 @@
         <v>188.4634146341463</v>
       </c>
       <c r="J1271">
-        <v>137.7472433628319</v>
+        <v>198.0029689186272</v>
       </c>
       <c r="K1271">
-        <v>27.8172</v>
+        <v>33.92341463414634</v>
       </c>
       <c r="L1271">
         <v>0</v>
       </c>
       <c r="M1271">
-        <v>109.9300433628319</v>
+        <v>164.0795542844809</v>
       </c>
     </row>
     <row r="1272" spans="1:13">
@@ -58064,16 +58064,16 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1308">
-        <v>111.7811084070796</v>
+        <v>160.736475825599</v>
       </c>
       <c r="K1308">
-        <v>22.6278</v>
+        <v>27.59487804878049</v>
       </c>
       <c r="L1308">
         <v>0</v>
       </c>
       <c r="M1308">
-        <v>89.15330840707965</v>
+        <v>133.1415977768185</v>
       </c>
     </row>
     <row r="1309" spans="1:13">
@@ -58433,16 +58433,16 @@
         <v>190.5</v>
       </c>
       <c r="J1317">
-        <v>139.2513517699115</v>
+        <v>200.1616592920354</v>
       </c>
       <c r="K1317">
-        <v>28.1178</v>
+        <v>34.29000000000001</v>
       </c>
       <c r="L1317">
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>111.1335517699115</v>
+        <v>165.8716592920354</v>
       </c>
     </row>
     <row r="1318" spans="1:13">
@@ -58515,16 +58515,16 @@
         <v>176.1951219512195</v>
       </c>
       <c r="J1319">
-        <v>128.6865663716814</v>
+        <v>184.9991215195338</v>
       </c>
       <c r="K1319">
-        <v>26.0064</v>
+        <v>31.71512195121951</v>
       </c>
       <c r="L1319">
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>102.6801663716814</v>
+        <v>153.2839995683143</v>
       </c>
     </row>
     <row r="1320" spans="1:13">
@@ -58556,16 +58556,16 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1320">
-        <v>159.6333716814159</v>
+        <v>229.4138527951651</v>
       </c>
       <c r="K1320">
-        <v>32.1912</v>
+        <v>39.25756097560976</v>
       </c>
       <c r="L1320">
         <v>0</v>
       </c>
       <c r="M1320">
-        <v>127.4421716814159</v>
+        <v>190.1562918195554</v>
       </c>
     </row>
     <row r="1321" spans="1:13">
@@ -58638,16 +58638,16 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1322">
-        <v>159.6333716814159</v>
+        <v>229.4138527951651</v>
       </c>
       <c r="K1322">
-        <v>32.1912</v>
+        <v>39.25756097560976</v>
       </c>
       <c r="L1322">
         <v>0</v>
       </c>
       <c r="M1322">
-        <v>127.4421716814159</v>
+        <v>190.1562918195554</v>
       </c>
     </row>
     <row r="1323" spans="1:13">
@@ -58761,16 +58761,16 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1325">
-        <v>159.6333716814159</v>
+        <v>229.4138527951651</v>
       </c>
       <c r="K1325">
-        <v>32.1912</v>
+        <v>39.25756097560976</v>
       </c>
       <c r="L1325">
         <v>0</v>
       </c>
       <c r="M1325">
-        <v>127.4421716814159</v>
+        <v>190.1562918195554</v>
       </c>
     </row>
     <row r="1326" spans="1:13">
@@ -58922,16 +58922,16 @@
         <v>167</v>
       </c>
       <c r="J1329">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1329">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1329">
         <v>0</v>
       </c>
       <c r="M1329">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1330" spans="1:13">
@@ -58960,16 +58960,16 @@
         <v>167</v>
       </c>
       <c r="J1330">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1330">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1330">
         <v>0</v>
       </c>
       <c r="M1330">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1331" spans="1:13">
@@ -59165,16 +59165,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1335">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1335">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1335">
         <v>0</v>
       </c>
       <c r="M1335">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1336" spans="1:13">
@@ -59206,16 +59206,16 @@
         <v>167</v>
       </c>
       <c r="J1336">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1336">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1336">
         <v>0</v>
       </c>
       <c r="M1336">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1337" spans="1:13">
@@ -59534,16 +59534,16 @@
         <v>205.8292682926829</v>
       </c>
       <c r="J1344">
-        <v>150.5726946902655</v>
+        <v>216.4100053960717</v>
       </c>
       <c r="K1344">
-        <v>30.3804</v>
+        <v>37.04926829268292</v>
       </c>
       <c r="L1344">
         <v>0</v>
       </c>
       <c r="M1344">
-        <v>120.1922946902655</v>
+        <v>179.3607371033887</v>
       </c>
     </row>
     <row r="1345" spans="1:13">
@@ -60313,16 +60313,16 @@
         <v>219</v>
       </c>
       <c r="J1363">
-        <v>160.2998628318584</v>
+        <v>230.3703982300885</v>
       </c>
       <c r="K1363">
-        <v>32.3244</v>
+        <v>39.42</v>
       </c>
       <c r="L1363">
         <v>0</v>
       </c>
       <c r="M1363">
-        <v>127.9754628318584</v>
+        <v>190.9503982300885</v>
       </c>
     </row>
     <row r="1364" spans="1:13">
@@ -60395,16 +60395,16 @@
         <v>167</v>
       </c>
       <c r="J1365">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1365">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1365">
         <v>0</v>
       </c>
       <c r="M1365">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1366" spans="1:13">
@@ -61051,16 +61051,16 @@
         <v>155.3536585365854</v>
       </c>
       <c r="J1381">
-        <v>113.2942234513275</v>
+        <v>162.9080924886683</v>
       </c>
       <c r="K1381">
-        <v>22.9302</v>
+        <v>27.96365853658537</v>
       </c>
       <c r="L1381">
         <v>0</v>
       </c>
       <c r="M1381">
-        <v>90.36402345132745</v>
+        <v>134.9444339520829</v>
       </c>
     </row>
     <row r="1382" spans="1:13">
@@ -61335,16 +61335,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1388">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1388">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1388">
         <v>0</v>
       </c>
       <c r="M1388">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1389" spans="1:13">
@@ -61376,16 +61376,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1389">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1389">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1389">
         <v>0</v>
       </c>
       <c r="M1389">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1390" spans="1:13">
@@ -61745,16 +61745,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1398">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1398">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1398">
         <v>0</v>
       </c>
       <c r="M1398">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1399" spans="1:13">
@@ -61827,16 +61827,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1400">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1400">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1400">
         <v>0</v>
       </c>
       <c r="M1400">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1401" spans="1:13">
@@ -61991,16 +61991,16 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J1404">
-        <v>133.2169048672566</v>
+        <v>191.5010452190805</v>
       </c>
       <c r="K1404">
-        <v>26.9118</v>
+        <v>32.81926829268293</v>
       </c>
       <c r="L1404">
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>106.3051048672566</v>
+        <v>158.6817769263976</v>
       </c>
     </row>
     <row r="1405" spans="1:13">
@@ -62729,16 +62729,16 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1422">
-        <v>130.947232300885</v>
+        <v>188.2436202244766</v>
       </c>
       <c r="K1422">
-        <v>26.4582</v>
+        <v>32.26609756097561</v>
       </c>
       <c r="L1422">
         <v>0</v>
       </c>
       <c r="M1422">
-        <v>104.489032300885</v>
+        <v>155.977522663501</v>
       </c>
     </row>
     <row r="1423" spans="1:13">
@@ -62975,16 +62975,16 @@
         <v>211.9756097560976</v>
       </c>
       <c r="J1428">
-        <v>155.1120398230088</v>
+        <v>222.9248553852795</v>
       </c>
       <c r="K1428">
-        <v>31.2876</v>
+        <v>38.15560975609756</v>
       </c>
       <c r="L1428">
         <v>0</v>
       </c>
       <c r="M1428">
-        <v>123.8244398230088</v>
+        <v>184.769245629182</v>
       </c>
     </row>
     <row r="1429" spans="1:13">
@@ -63426,16 +63426,16 @@
         <v>167</v>
       </c>
       <c r="J1439">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1439">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1439">
         <v>0</v>
       </c>
       <c r="M1439">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1440" spans="1:13">
@@ -63508,16 +63508,16 @@
         <v>167</v>
       </c>
       <c r="J1441">
-        <v>121.8955619469027</v>
+        <v>175.2526991150443</v>
       </c>
       <c r="K1441">
-        <v>24.6492</v>
+        <v>30.06</v>
       </c>
       <c r="L1441">
         <v>0</v>
       </c>
       <c r="M1441">
-        <v>97.24636194690265</v>
+        <v>145.1926991150443</v>
       </c>
     </row>
     <row r="1442" spans="1:13">

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -7549,7 +7549,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J73">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K73">
         <v>22.81390243902439</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -8779,7 +8779,7 @@
         <v>2771.768292682927</v>
       </c>
       <c r="J103">
-        <v>2906.273338549536</v>
+        <v>2467.24731701921</v>
       </c>
       <c r="K103">
         <v>498.9182926829268</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>2407.35504586661</v>
+        <v>1968.329024336283</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -9763,7 +9763,7 @@
         <v>165.5853658536585</v>
       </c>
       <c r="J127">
-        <v>173.7532495143536</v>
+        <v>147.525846384632</v>
       </c>
       <c r="K127">
         <v>29.80536585365854</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>143.947883660695</v>
+        <v>117.7204805309735</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -10255,7 +10255,7 @@
         <v>105.6707317073171</v>
       </c>
       <c r="J139">
-        <v>110.2463884092381</v>
+        <v>93.50898613209586</v>
       </c>
       <c r="K139">
         <v>19.02073170731708</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>91.22565670192103</v>
+        <v>74.48825442477877</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -10583,7 +10583,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J147">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K147">
         <v>21.70975609756098</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -10829,7 +10829,7 @@
         <v>241.219512195122</v>
       </c>
       <c r="J153">
-        <v>252.1621864882366</v>
+        <v>213.954936973883</v>
       </c>
       <c r="K153">
         <v>43.41951219512195</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>208.7426742931146</v>
+        <v>170.5354247787611</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -10911,7 +10911,7 @@
         <v>264.4878048780488</v>
       </c>
       <c r="J155">
-        <v>276.8255471616663</v>
+        <v>234.9327854090222</v>
       </c>
       <c r="K155">
         <v>47.60780487804878</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>229.2177422836176</v>
+        <v>187.3249805309734</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -10952,7 +10952,7 @@
         <v>264.4878048780488</v>
       </c>
       <c r="J156">
-        <v>276.8255471616663</v>
+        <v>234.9327854090222</v>
       </c>
       <c r="K156">
         <v>47.60780487804878</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>229.2177422836176</v>
+        <v>187.3249805309734</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -11485,7 +11485,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J169">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K169">
         <v>22.81390243902439</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -11813,7 +11813,7 @@
         <v>253.4878048780488</v>
       </c>
       <c r="J177">
-        <v>265.1660338873301</v>
+        <v>225.0155845240665</v>
       </c>
       <c r="K177">
         <v>45.62780487804879</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>219.5382290092813</v>
+        <v>179.3877796460177</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -11854,7 +11854,7 @@
         <v>97.67073170731709</v>
       </c>
       <c r="J178">
-        <v>101.766742391539</v>
+        <v>86.29647639758257</v>
       </c>
       <c r="K178">
         <v>17.58073170731707</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>84.1860106842219</v>
+        <v>68.7157446902655</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -11895,7 +11895,7 @@
         <v>168.0853658536586</v>
       </c>
       <c r="J179">
-        <v>176.4031388948846</v>
+        <v>149.7797556766674</v>
       </c>
       <c r="K179">
         <v>30.25536585365854</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>146.147773041226</v>
+        <v>119.5243898230089</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -12018,7 +12018,7 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J182">
-        <v>148.8313630477013</v>
+        <v>126.3281043600259</v>
       </c>
       <c r="K182">
         <v>25.57317073170732</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>123.258192315994</v>
+        <v>100.7549336283186</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -12917,7 +12917,7 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J204">
-        <v>156.8327363479387</v>
+        <v>133.1338109540255</v>
       </c>
       <c r="K204">
         <v>26.93195121951219</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>129.9007851284265</v>
+        <v>106.2018597345133</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -12999,7 +12999,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J206">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K206">
         <v>25.46121951219513</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -13040,7 +13040,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J207">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K207">
         <v>25.46121951219513</v>
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -13081,7 +13081,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J208">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K208">
         <v>23.80390243902439</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -13409,7 +13409,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J216">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K216">
         <v>22.81390243902439</v>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -13491,7 +13491,7 @@
         <v>166.4878048780488</v>
       </c>
       <c r="J218">
-        <v>174.709794949277</v>
+        <v>148.3394526656594</v>
       </c>
       <c r="K218">
         <v>29.96780487804878</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>144.7419900712282</v>
+        <v>118.3716477876106</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -13655,7 +13655,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J222">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K222">
         <v>25.82780487804878</v>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -13696,7 +13696,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J223">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K223">
         <v>25.82780487804878</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -14024,7 +14024,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J231">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K231">
         <v>25.82780487804878</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -14188,7 +14188,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J235">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K235">
         <v>22.81390243902439</v>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -14557,7 +14557,7 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J244">
-        <v>151.4166209799266</v>
+        <v>128.5270402546946</v>
       </c>
       <c r="K244">
         <v>26.01219512195122</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>125.4044258579754</v>
+        <v>102.5148451327434</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -14926,7 +14926,7 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J253">
-        <v>156.8327363479387</v>
+        <v>133.1338109540255</v>
       </c>
       <c r="K253">
         <v>26.93195121951219</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>129.9007851284265</v>
+        <v>106.2018597345133</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -15213,7 +15213,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J260">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K260">
         <v>22.81390243902439</v>
@@ -15222,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -15254,7 +15254,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J261">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K261">
         <v>22.81390243902439</v>
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -15377,7 +15377,7 @@
         <v>192.0365853658537</v>
       </c>
       <c r="J264">
-        <v>201.7903717893374</v>
+        <v>171.3733061623138</v>
       </c>
       <c r="K264">
         <v>34.56658536585366</v>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>167.2237864234837</v>
+        <v>136.8067207964602</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -15705,7 +15705,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J272">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K272">
         <v>25.82780487804878</v>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -15951,7 +15951,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J278">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K278">
         <v>23.80390243902439</v>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -15992,7 +15992,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J279">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K279">
         <v>23.80390243902439</v>
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -16033,7 +16033,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J280">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K280">
         <v>23.80390243902439</v>
@@ -16042,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -16238,7 +16238,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J285">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K285">
         <v>22.81390243902439</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -16279,7 +16279,7 @@
         <v>140.8292682926829</v>
       </c>
       <c r="J286">
-        <v>147.5128815022664</v>
+        <v>125.2066470537449</v>
       </c>
       <c r="K286">
         <v>25.34926829268293</v>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>122.1636132095834</v>
+        <v>99.85737876106197</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -16320,7 +16320,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J287">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K287">
         <v>22.81390243902439</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -16361,7 +16361,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J288">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K288">
         <v>21.70975609756098</v>
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -17181,7 +17181,7 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J308">
-        <v>148.8313630477013</v>
+        <v>126.3281043600259</v>
       </c>
       <c r="K308">
         <v>25.57317073170732</v>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>123.258192315994</v>
+        <v>100.7549336283186</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -17263,7 +17263,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J310">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K310">
         <v>22.81390243902439</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -17301,7 +17301,7 @@
         <v>129.1829268292683</v>
       </c>
       <c r="J311">
-        <v>135.1682748758904</v>
+        <v>114.7067281567019</v>
       </c>
       <c r="K311">
         <v>23.25292682926829</v>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>111.9153480466221</v>
+        <v>91.45380132743364</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -17339,7 +17339,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J312">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K312">
         <v>27.48292682926829</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -17377,7 +17377,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J313">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K313">
         <v>25.82780487804878</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -18428,7 +18428,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J339">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K339">
         <v>21.70975609756098</v>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -18548,7 +18548,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J342">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K342">
         <v>23.80390243902439</v>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -18586,7 +18586,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J343">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K343">
         <v>23.80390243902439</v>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -18832,7 +18832,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J349">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K349">
         <v>27.48292682926829</v>
@@ -18841,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -18873,7 +18873,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J350">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K350">
         <v>27.48292682926829</v>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -19242,7 +19242,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J359">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K359">
         <v>22.81390243902439</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -19283,7 +19283,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J360">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K360">
         <v>22.81390243902439</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -19526,7 +19526,7 @@
         <v>143.4878048780488</v>
       </c>
       <c r="J366">
-        <v>150.330812648392</v>
+        <v>127.6034871789337</v>
       </c>
       <c r="K366">
         <v>25.82780487804878</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>124.5030077703432</v>
+        <v>101.775682300885</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -19640,7 +19640,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J369">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K369">
         <v>23.80390243902439</v>
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -19678,7 +19678,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J370">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K370">
         <v>27.48292682926829</v>
@@ -19687,7 +19687,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -20129,7 +20129,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J381">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K381">
         <v>22.81390243902439</v>
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -20211,7 +20211,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J383">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K383">
         <v>22.81390243902439</v>
@@ -20220,7 +20220,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -20457,7 +20457,7 @@
         <v>129.8048780487805</v>
       </c>
       <c r="J389">
-        <v>135.8275156486078</v>
+        <v>115.2674568098425</v>
       </c>
       <c r="K389">
         <v>23.36487804878049</v>
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>112.4626375998273</v>
+        <v>91.90257876106196</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -20659,7 +20659,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J394">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K394">
         <v>25.46121951219513</v>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -20864,7 +20864,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J399">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K399">
         <v>27.48292682926829</v>
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -21268,7 +21268,7 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J409">
-        <v>156.8327363479387</v>
+        <v>133.1338109540255</v>
       </c>
       <c r="K409">
         <v>26.93195121951219</v>
@@ -21277,7 +21277,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>129.9007851284265</v>
+        <v>106.2018597345133</v>
       </c>
     </row>
     <row r="410" spans="1:13">
@@ -21842,7 +21842,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J423">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K423">
         <v>23.80390243902439</v>
@@ -21851,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -21924,7 +21924,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J425">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K425">
         <v>23.80390243902439</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -22495,7 +22495,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J439">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K439">
         <v>25.46121951219513</v>
@@ -22504,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="440" spans="1:13">
@@ -22700,7 +22700,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J444">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K444">
         <v>27.48292682926829</v>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="445" spans="1:13">
@@ -22741,7 +22741,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J445">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K445">
         <v>25.46121951219513</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="446" spans="1:13">
@@ -23274,7 +23274,7 @@
         <v>160.3536585365854</v>
       </c>
       <c r="J458">
-        <v>168.2078712497303</v>
+        <v>142.8091288905677</v>
       </c>
       <c r="K458">
         <v>28.86365853658537</v>
@@ -23283,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>139.3442127131449</v>
+        <v>113.9454703539823</v>
       </c>
     </row>
     <row r="459" spans="1:13">
@@ -23643,7 +23643,7 @@
         <v>141.4512195121951</v>
       </c>
       <c r="J467">
-        <v>148.1721222749838</v>
+        <v>125.7673757068854</v>
       </c>
       <c r="K467">
         <v>25.46121951219513</v>
@@ -23652,7 +23652,7 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <v>122.7109027627887</v>
+        <v>100.3061561946903</v>
       </c>
     </row>
     <row r="468" spans="1:13">
@@ -24258,7 +24258,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J482">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K482">
         <v>22.81390243902439</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="483" spans="1:13">
@@ -24955,7 +24955,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J499">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K499">
         <v>23.80390243902439</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="500" spans="1:13">
@@ -25447,7 +25447,7 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J511">
-        <v>151.4166209799266</v>
+        <v>128.5270402546946</v>
       </c>
       <c r="K511">
         <v>26.01219512195122</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>125.4044258579754</v>
+        <v>102.5148451327434</v>
       </c>
     </row>
     <row r="512" spans="1:13">
@@ -26018,7 +26018,7 @@
         <v>458.0487804878049</v>
       </c>
       <c r="J525">
-        <v>480.2317051586446</v>
+        <v>407.680426505504</v>
       </c>
       <c r="K525">
         <v>82.44878048780488</v>
@@ -26027,7 +26027,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>397.7829246708397</v>
+        <v>325.2316460176992</v>
       </c>
     </row>
     <row r="526" spans="1:13">
@@ -26141,7 +26141,7 @@
         <v>126.7439024390244</v>
       </c>
       <c r="J528">
-        <v>132.5830169436651</v>
+        <v>112.5077922620333</v>
       </c>
       <c r="K528">
         <v>22.81390243902439</v>
@@ -26150,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>109.7691145046407</v>
+        <v>89.69388982300887</v>
       </c>
     </row>
     <row r="529" spans="1:13">
@@ -26182,7 +26182,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J529">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K529">
         <v>29.6209756097561</v>
@@ -26191,7 +26191,7 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="530" spans="1:13">
@@ -26264,7 +26264,7 @@
         <v>160.3536585365854</v>
       </c>
       <c r="J531">
-        <v>168.2078712497303</v>
+        <v>142.8091288905677</v>
       </c>
       <c r="K531">
         <v>28.86365853658537</v>
@@ -26273,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>139.3442127131449</v>
+        <v>113.9454703539823</v>
       </c>
     </row>
     <row r="532" spans="1:13">
@@ -27043,7 +27043,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J550">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K550">
         <v>29.6209756097561</v>
@@ -27052,7 +27052,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="551" spans="1:13">
@@ -27084,7 +27084,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J551">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K551">
         <v>29.6209756097561</v>
@@ -27093,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="552" spans="1:13">
@@ -27125,7 +27125,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J552">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K552">
         <v>29.6209756097561</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="553" spans="1:13">
@@ -27166,7 +27166,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J553">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K553">
         <v>29.6209756097561</v>
@@ -27175,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="554" spans="1:13">
@@ -27371,7 +27371,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J558">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K558">
         <v>21.70975609756098</v>
@@ -27380,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="559" spans="1:13">
@@ -27535,7 +27535,7 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J562">
-        <v>148.8313630477013</v>
+        <v>126.3281043600259</v>
       </c>
       <c r="K562">
         <v>25.57317073170732</v>
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>123.258192315994</v>
+        <v>100.7549336283186</v>
       </c>
     </row>
     <row r="563" spans="1:13">
@@ -27576,7 +27576,7 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J563">
-        <v>148.8313630477013</v>
+        <v>126.3281043600259</v>
       </c>
       <c r="K563">
         <v>25.57317073170732</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>123.258192315994</v>
+        <v>100.7549336283186</v>
       </c>
     </row>
     <row r="564" spans="1:13">
@@ -27614,7 +27614,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J564">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K564">
         <v>27.48292682926829</v>
@@ -27623,7 +27623,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="565" spans="1:13">
@@ -28393,7 +28393,7 @@
         <v>142.0731707317073</v>
       </c>
       <c r="J583">
-        <v>148.8313630477013</v>
+        <v>126.3281043600259</v>
       </c>
       <c r="K583">
         <v>25.57317073170732</v>
@@ -28402,7 +28402,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>123.258192315994</v>
+        <v>100.7549336283186</v>
       </c>
     </row>
     <row r="584" spans="1:13">
@@ -28885,7 +28885,7 @@
         <v>149.6219512195122</v>
       </c>
       <c r="J595">
-        <v>156.8327363479387</v>
+        <v>133.1338109540255</v>
       </c>
       <c r="K595">
         <v>26.93195121951219</v>
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>129.9007851284265</v>
+        <v>106.2018597345133</v>
       </c>
     </row>
     <row r="596" spans="1:13">
@@ -29377,7 +29377,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J607">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K607">
         <v>21.70975609756098</v>
@@ -29386,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="608" spans="1:13">
@@ -29705,7 +29705,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J615">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K615">
         <v>27.48292682926829</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="616" spans="1:13">
@@ -29828,7 +29828,7 @@
         <v>172</v>
       </c>
       <c r="J618">
-        <v>180.5524778761062</v>
+        <v>153.3090477876106</v>
       </c>
       <c r="K618">
         <v>30.96</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>149.5924778761062</v>
+        <v>122.3490477876106</v>
       </c>
     </row>
     <row r="619" spans="1:13">
@@ -30238,7 +30238,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J628">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K628">
         <v>29.6209756097561</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="629" spans="1:13">
@@ -30279,7 +30279,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J629">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K629">
         <v>29.6209756097561</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="630" spans="1:13">
@@ -30320,7 +30320,7 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J630">
-        <v>151.4166209799266</v>
+        <v>128.5270402546946</v>
       </c>
       <c r="K630">
         <v>26.01219512195122</v>
@@ -30329,7 +30329,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>125.4044258579754</v>
+        <v>102.5148451327434</v>
       </c>
     </row>
     <row r="631" spans="1:13">
@@ -30935,7 +30935,7 @@
         <v>96.47560975609757</v>
       </c>
       <c r="J645">
-        <v>100.4999660047486</v>
+        <v>85.21899780919492</v>
       </c>
       <c r="K645">
         <v>17.36560975609756</v>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>83.13435624865099</v>
+        <v>67.85338805309735</v>
       </c>
     </row>
     <row r="646" spans="1:13">
@@ -31181,7 +31181,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J651">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K651">
         <v>29.6209756097561</v>
@@ -31190,7 +31190,7 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="652" spans="1:13">
@@ -32206,7 +32206,7 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J676">
-        <v>151.4166209799266</v>
+        <v>128.5270402546946</v>
       </c>
       <c r="K676">
         <v>26.01219512195122</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>125.4044258579754</v>
+        <v>102.5148451327434</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -32244,7 +32244,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J677">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K677">
         <v>23.80390243902439</v>
@@ -32253,7 +32253,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="678" spans="1:13">
@@ -32572,7 +32572,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J685">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K685">
         <v>27.48292682926829</v>
@@ -32581,7 +32581,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="686" spans="1:13">
@@ -32941,7 +32941,7 @@
         <v>132.2439024390244</v>
       </c>
       <c r="J694">
-        <v>138.4127735808332</v>
+        <v>117.4663927045111</v>
       </c>
       <c r="K694">
         <v>23.80390243902439</v>
@@ -32950,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>114.6088711418088</v>
+        <v>93.66249026548672</v>
       </c>
     </row>
     <row r="695" spans="1:13">
@@ -33146,7 +33146,7 @@
         <v>144.5121951219512</v>
       </c>
       <c r="J699">
-        <v>151.4166209799266</v>
+        <v>128.5270402546946</v>
       </c>
       <c r="K699">
         <v>26.01219512195122</v>
@@ -33155,7 +33155,7 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <v>125.4044258579754</v>
+        <v>102.5148451327434</v>
       </c>
     </row>
     <row r="700" spans="1:13">
@@ -33679,7 +33679,7 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J712">
-        <v>173.081082451975</v>
+        <v>146.9541230520181</v>
       </c>
       <c r="K712">
         <v>29.69121951219512</v>
@@ -33688,7 +33688,7 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>143.3898629397798</v>
+        <v>117.262903539823</v>
       </c>
     </row>
     <row r="713" spans="1:13">
@@ -33761,7 +33761,7 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J714">
-        <v>173.081082451975</v>
+        <v>146.9541230520181</v>
       </c>
       <c r="K714">
         <v>29.69121951219512</v>
@@ -33770,7 +33770,7 @@
         <v>0</v>
       </c>
       <c r="M714">
-        <v>143.3898629397798</v>
+        <v>117.262903539823</v>
       </c>
     </row>
     <row r="715" spans="1:13">
@@ -34048,7 +34048,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J721">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K721">
         <v>29.6209756097561</v>
@@ -34057,7 +34057,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="722" spans="1:13">
@@ -34089,7 +34089,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J722">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K722">
         <v>29.6209756097561</v>
@@ -34098,7 +34098,7 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="723" spans="1:13">
@@ -34130,7 +34130,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J723">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K723">
         <v>29.6209756097561</v>
@@ -34139,7 +34139,7 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="724" spans="1:13">
@@ -34253,7 +34253,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J726">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K726">
         <v>21.70975609756098</v>
@@ -34262,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="727" spans="1:13">
@@ -34537,7 +34537,7 @@
         <v>152.6829268292683</v>
       </c>
       <c r="J733">
-        <v>160.0772350528815</v>
+        <v>135.8934755018347</v>
       </c>
       <c r="K733">
         <v>27.48292682926829</v>
@@ -34546,7 +34546,7 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>132.5943082236132</v>
+        <v>108.4105486725664</v>
       </c>
     </row>
     <row r="734" spans="1:13">
@@ -34701,7 +34701,7 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J737">
-        <v>173.081082451975</v>
+        <v>146.9541230520181</v>
       </c>
       <c r="K737">
         <v>29.69121951219512</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>143.3898629397798</v>
+        <v>117.262903539823</v>
       </c>
     </row>
     <row r="738" spans="1:13">
@@ -34865,7 +34865,7 @@
         <v>164.5609756097561</v>
       </c>
       <c r="J741">
-        <v>172.6674411828189</v>
+        <v>146.6022933088711</v>
       </c>
       <c r="K741">
         <v>29.6209756097561</v>
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>143.0464655730628</v>
+        <v>116.981317699115</v>
       </c>
     </row>
     <row r="742" spans="1:13">
@@ -34947,7 +34947,7 @@
         <v>120.609756097561</v>
       </c>
       <c r="J743">
-        <v>126.0810932441183</v>
+        <v>106.9774684869415</v>
       </c>
       <c r="K743">
         <v>21.70975609756098</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>104.3713371465573</v>
+        <v>85.26771238938053</v>
       </c>
     </row>
     <row r="744" spans="1:13">
@@ -35357,7 +35357,7 @@
         <v>164.9512195121951</v>
       </c>
       <c r="J753">
-        <v>173.081082451975</v>
+        <v>146.9541230520181</v>
       </c>
       <c r="K753">
         <v>29.69121951219512</v>
@@ -35366,7 +35366,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>143.3898629397798</v>
+        <v>117.262903539823</v>
       </c>
     </row>
     <row r="754" spans="1:13">
@@ -35808,7 +35808,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J764">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K764">
         <v>25.75756097560976</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="765" spans="1:13">
@@ -35972,7 +35972,7 @@
         <v>173.7560975609756</v>
       </c>
       <c r="J768">
-        <v>182.4138635873085</v>
+        <v>154.8922816317721</v>
       </c>
       <c r="K768">
         <v>31.27609756097561</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>151.1377660263329</v>
+        <v>123.6161840707965</v>
       </c>
     </row>
     <row r="769" spans="1:13">
@@ -36054,7 +36054,7 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J770">
-        <v>178.497197819987</v>
+        <v>151.560893751349</v>
       </c>
       <c r="K770">
         <v>30.6109756097561</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <v>147.8862222102309</v>
+        <v>120.9499181415929</v>
       </c>
     </row>
     <row r="771" spans="1:13">
@@ -36499,7 +36499,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J781">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K781">
         <v>27.59487804878049</v>
@@ -36508,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="782" spans="1:13">
@@ -36663,7 +36663,7 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J785">
-        <v>191.5010452190805</v>
+        <v>162.6215413015325</v>
       </c>
       <c r="K785">
         <v>32.81926829268293</v>
@@ -36672,7 +36672,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>158.6817769263976</v>
+        <v>129.8022730088496</v>
       </c>
     </row>
     <row r="786" spans="1:13">
@@ -36991,7 +36991,7 @@
         <v>163.9268292682927</v>
       </c>
       <c r="J793">
-        <v>171.9952741204403</v>
+        <v>146.0305699762573</v>
       </c>
       <c r="K793">
         <v>29.50682926829268</v>
@@ -37000,7 +37000,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>142.4884448521476</v>
+        <v>116.5237407079646</v>
       </c>
     </row>
     <row r="794" spans="1:13">
@@ -37442,7 +37442,7 @@
         <v>169.6707317073171</v>
       </c>
       <c r="J804">
-        <v>178.083556550831</v>
+        <v>151.209064008202</v>
       </c>
       <c r="K804">
         <v>30.54073170731708</v>
@@ -37451,7 +37451,7 @@
         <v>0</v>
       </c>
       <c r="M804">
-        <v>147.542824843514</v>
+        <v>120.668332300885</v>
       </c>
     </row>
     <row r="805" spans="1:13">
@@ -37483,7 +37483,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J805">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K805">
         <v>27.59487804878049</v>
@@ -37492,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="M805">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="806" spans="1:13">
@@ -37688,7 +37688,7 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J810">
-        <v>166.5662324627671</v>
+        <v>141.4128045974531</v>
       </c>
       <c r="K810">
         <v>28.58487804878049</v>
@@ -37697,7 +37697,7 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>137.9813544139867</v>
+        <v>112.8279265486726</v>
       </c>
     </row>
     <row r="811" spans="1:13">
@@ -37729,7 +37729,7 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J811">
-        <v>153.5882376429959</v>
+        <v>130.3741464062163</v>
       </c>
       <c r="K811">
         <v>26.3809756097561</v>
@@ -37738,7 +37738,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>127.2072620332398</v>
+        <v>103.9931707964602</v>
       </c>
     </row>
     <row r="812" spans="1:13">
@@ -38221,7 +38221,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J823">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K823">
         <v>27.59487804878049</v>
@@ -38230,7 +38230,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="824" spans="1:13">
@@ -38344,7 +38344,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J826">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K826">
         <v>27.59487804878049</v>
@@ -38353,7 +38353,7 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="827" spans="1:13">
@@ -38385,7 +38385,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J827">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K827">
         <v>27.59487804878049</v>
@@ -38394,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="828" spans="1:13">
@@ -38508,7 +38508,7 @@
         <v>167</v>
       </c>
       <c r="J830">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K830">
         <v>30.06</v>
@@ -38517,7 +38517,7 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="831" spans="1:13">
@@ -38713,7 +38713,7 @@
         <v>163.9268292682927</v>
       </c>
       <c r="J835">
-        <v>171.9952741204403</v>
+        <v>146.0305699762573</v>
       </c>
       <c r="K835">
         <v>29.50682926829268</v>
@@ -38722,7 +38722,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>142.4884448521476</v>
+        <v>116.5237407079646</v>
       </c>
     </row>
     <row r="836" spans="1:13">
@@ -39164,7 +39164,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J846">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K846">
         <v>27.59487804878049</v>
@@ -39173,7 +39173,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="847" spans="1:13">
@@ -39205,7 +39205,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J847">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K847">
         <v>27.59487804878049</v>
@@ -39214,7 +39214,7 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="848" spans="1:13">
@@ -39328,7 +39328,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J850">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K850">
         <v>27.59487804878049</v>
@@ -39337,7 +39337,7 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="851" spans="1:13">
@@ -39448,7 +39448,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J853">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K853">
         <v>32.26609756097561</v>
@@ -39457,7 +39457,7 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="854" spans="1:13">
@@ -39486,7 +39486,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J854">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K854">
         <v>32.26609756097561</v>
@@ -39495,7 +39495,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="855" spans="1:13">
@@ -39688,7 +39688,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J859">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K859">
         <v>32.26609756097561</v>
@@ -39697,7 +39697,7 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="860" spans="1:13">
@@ -39811,7 +39811,7 @@
         <v>190.5</v>
       </c>
       <c r="J862">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K862">
         <v>34.29000000000001</v>
@@ -39820,7 +39820,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="863" spans="1:13">
@@ -40098,7 +40098,7 @@
         <v>170.3536585365854</v>
       </c>
       <c r="J869">
-        <v>178.8074287718541</v>
+        <v>151.8247660587093</v>
       </c>
       <c r="K869">
         <v>30.66365853658537</v>
@@ -40107,7 +40107,7 @@
         <v>0</v>
       </c>
       <c r="M869">
-        <v>148.1437702352688</v>
+        <v>121.1611075221239</v>
       </c>
     </row>
     <row r="870" spans="1:13">
@@ -40139,7 +40139,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J870">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K870">
         <v>27.59487804878049</v>
@@ -40148,7 +40148,7 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="871" spans="1:13">
@@ -40303,7 +40303,7 @@
         <v>167</v>
       </c>
       <c r="J874">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K874">
         <v>30.06</v>
@@ -40312,7 +40312,7 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="875" spans="1:13">
@@ -40549,7 +40549,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J880">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K880">
         <v>32.26609756097561</v>
@@ -40558,7 +40558,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="881" spans="1:13">
@@ -40713,7 +40713,7 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J884">
-        <v>166.5662324627671</v>
+        <v>141.4128045974531</v>
       </c>
       <c r="K884">
         <v>28.58487804878049</v>
@@ -40722,7 +40722,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>137.9813544139867</v>
+        <v>112.8279265486726</v>
       </c>
     </row>
     <row r="885" spans="1:13">
@@ -41082,7 +41082,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J893">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K893">
         <v>27.59487804878049</v>
@@ -41091,7 +41091,7 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="894" spans="1:13">
@@ -41205,7 +41205,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J896">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K896">
         <v>32.26609756097561</v>
@@ -41214,7 +41214,7 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="897" spans="1:13">
@@ -41246,7 +41246,7 @@
         <v>167</v>
       </c>
       <c r="J897">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K897">
         <v>30.06</v>
@@ -41255,7 +41255,7 @@
         <v>0</v>
       </c>
       <c r="M897">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="898" spans="1:13">
@@ -41656,7 +41656,7 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J907">
-        <v>178.497197819987</v>
+        <v>151.560893751349</v>
       </c>
       <c r="K907">
         <v>30.6109756097561</v>
@@ -41665,7 +41665,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>147.8862222102309</v>
+        <v>120.9499181415929</v>
       </c>
     </row>
     <row r="908" spans="1:13">
@@ -41820,7 +41820,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J911">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K911">
         <v>27.59487804878049</v>
@@ -41829,7 +41829,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="912" spans="1:13">
@@ -41943,7 +41943,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J914">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K914">
         <v>32.26609756097561</v>
@@ -41952,7 +41952,7 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="915" spans="1:13">
@@ -42189,7 +42189,7 @@
         <v>167</v>
       </c>
       <c r="J920">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K920">
         <v>30.06</v>
@@ -42198,7 +42198,7 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="921" spans="1:13">
@@ -42845,7 +42845,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J936">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K936">
         <v>27.59487804878049</v>
@@ -42854,7 +42854,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="937" spans="1:13">
@@ -43460,7 +43460,7 @@
         <v>110.7804878048781</v>
       </c>
       <c r="J951">
-        <v>115.6625037772502</v>
+        <v>98.11575683142674</v>
       </c>
       <c r="K951">
         <v>19.94048780487805</v>
@@ -43469,7 +43469,7 @@
         <v>0</v>
       </c>
       <c r="M951">
-        <v>95.72201597237213</v>
+        <v>78.17526902654869</v>
       </c>
     </row>
     <row r="952" spans="1:13">
@@ -43788,7 +43788,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J959">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K959">
         <v>25.75756097560976</v>
@@ -43797,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="960" spans="1:13">
@@ -43952,7 +43952,7 @@
         <v>167</v>
       </c>
       <c r="J963">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K963">
         <v>30.06</v>
@@ -43961,7 +43961,7 @@
         <v>0</v>
       </c>
       <c r="M963">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="964" spans="1:13">
@@ -44649,7 +44649,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J980">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K980">
         <v>25.75756097560976</v>
@@ -44658,7 +44658,7 @@
         <v>0</v>
       </c>
       <c r="M980">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="981" spans="1:13">
@@ -44731,7 +44731,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J982">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K982">
         <v>25.75756097560976</v>
@@ -44740,7 +44740,7 @@
         <v>0</v>
       </c>
       <c r="M982">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="983" spans="1:13">
@@ -44892,7 +44892,7 @@
         <v>167</v>
       </c>
       <c r="J986">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K986">
         <v>30.06</v>
@@ -44901,7 +44901,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="987" spans="1:13">
@@ -45384,7 +45384,7 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J998">
-        <v>140.5843902439025</v>
+        <v>119.3134988560328</v>
       </c>
       <c r="K998">
         <v>24.17268292682927</v>
@@ -45393,7 +45393,7 @@
         <v>0</v>
       </c>
       <c r="M998">
-        <v>116.4117073170732</v>
+        <v>95.14081592920355</v>
       </c>
     </row>
     <row r="999" spans="1:13">
@@ -45955,7 +45955,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1012">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1012">
         <v>32.26609756097561</v>
@@ -45964,7 +45964,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1013" spans="1:13">
@@ -46119,7 +46119,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1016">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1016">
         <v>32.26609756097561</v>
@@ -46128,7 +46128,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1017" spans="1:13">
@@ -46283,7 +46283,7 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J1020">
-        <v>153.5882376429959</v>
+        <v>130.3741464062163</v>
       </c>
       <c r="K1020">
         <v>26.3809756097561</v>
@@ -46292,7 +46292,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>127.2072620332398</v>
+        <v>103.9931707964602</v>
       </c>
     </row>
     <row r="1021" spans="1:13">
@@ -46693,7 +46693,7 @@
         <v>170.0609756097561</v>
       </c>
       <c r="J1030">
-        <v>178.497197819987</v>
+        <v>151.560893751349</v>
       </c>
       <c r="K1030">
         <v>30.6109756097561</v>
@@ -46702,7 +46702,7 @@
         <v>0</v>
       </c>
       <c r="M1030">
-        <v>147.8862222102309</v>
+        <v>120.9499181415929</v>
       </c>
     </row>
     <row r="1031" spans="1:13">
@@ -46857,7 +46857,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1034">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1034">
         <v>32.26609756097561</v>
@@ -46866,7 +46866,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1035" spans="1:13">
@@ -46898,7 +46898,7 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J1035">
-        <v>140.5843902439025</v>
+        <v>119.3134988560328</v>
       </c>
       <c r="K1035">
         <v>24.17268292682927</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>116.4117073170732</v>
+        <v>95.14081592920355</v>
       </c>
     </row>
     <row r="1036" spans="1:13">
@@ -47267,7 +47267,7 @@
         <v>134.2926829268293</v>
       </c>
       <c r="J1044">
-        <v>140.5843902439025</v>
+        <v>119.3134988560328</v>
       </c>
       <c r="K1044">
         <v>24.17268292682927</v>
@@ -47276,7 +47276,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>116.4117073170732</v>
+        <v>95.14081592920355</v>
       </c>
     </row>
     <row r="1045" spans="1:13">
@@ -47636,7 +47636,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1053">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K1053">
         <v>27.59487804878049</v>
@@ -47645,7 +47645,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="1054" spans="1:13">
@@ -47800,7 +47800,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1057">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K1057">
         <v>27.59487804878049</v>
@@ -47809,7 +47809,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="1058" spans="1:13">
@@ -47838,7 +47838,7 @@
         <v>167</v>
       </c>
       <c r="J1058">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1058">
         <v>30.06</v>
@@ -47847,7 +47847,7 @@
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1059" spans="1:13">
@@ -47920,7 +47920,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1060">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1060">
         <v>32.26609756097561</v>
@@ -47929,7 +47929,7 @@
         <v>0</v>
       </c>
       <c r="M1060">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1061" spans="1:13">
@@ -48084,7 +48084,7 @@
         <v>190.5</v>
       </c>
       <c r="J1064">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K1064">
         <v>34.29000000000001</v>
@@ -48093,7 +48093,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="1065" spans="1:13">
@@ -48699,7 +48699,7 @@
         <v>167</v>
       </c>
       <c r="J1079">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1079">
         <v>30.06</v>
@@ -48708,7 +48708,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1080" spans="1:13">
@@ -48822,7 +48822,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1082">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1082">
         <v>32.26609756097561</v>
@@ -48831,7 +48831,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1083" spans="1:13">
@@ -49150,7 +49150,7 @@
         <v>158.8048780487805</v>
       </c>
       <c r="J1090">
-        <v>166.5662324627671</v>
+        <v>141.4128045974531</v>
       </c>
       <c r="K1090">
         <v>28.58487804878049</v>
@@ -49159,7 +49159,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>137.9813544139867</v>
+        <v>112.8279265486726</v>
       </c>
     </row>
     <row r="1091" spans="1:13">
@@ -49396,7 +49396,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1096">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K1096">
         <v>27.59487804878049</v>
@@ -49405,7 +49405,7 @@
         <v>0</v>
       </c>
       <c r="M1096">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="1097" spans="1:13">
@@ -49434,7 +49434,7 @@
         <v>167</v>
       </c>
       <c r="J1097">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1097">
         <v>30.06</v>
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1098" spans="1:13">
@@ -49472,7 +49472,7 @@
         <v>167</v>
       </c>
       <c r="J1098">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1098">
         <v>30.06</v>
@@ -49481,7 +49481,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1099" spans="1:13">
@@ -49510,7 +49510,7 @@
         <v>167</v>
       </c>
       <c r="J1099">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1099">
         <v>30.06</v>
@@ -49519,7 +49519,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1100" spans="1:13">
@@ -49674,7 +49674,7 @@
         <v>190.5</v>
       </c>
       <c r="J1103">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K1103">
         <v>34.29000000000001</v>
@@ -49683,7 +49683,7 @@
         <v>0</v>
       </c>
       <c r="M1103">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="1104" spans="1:13">
@@ -50289,7 +50289,7 @@
         <v>167</v>
       </c>
       <c r="J1118">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1118">
         <v>30.06</v>
@@ -50298,7 +50298,7 @@
         <v>0</v>
       </c>
       <c r="M1118">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1119" spans="1:13">
@@ -50371,7 +50371,7 @@
         <v>167</v>
       </c>
       <c r="J1120">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1120">
         <v>30.06</v>
@@ -50380,7 +50380,7 @@
         <v>0</v>
       </c>
       <c r="M1120">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1121" spans="1:13">
@@ -50576,7 +50576,7 @@
         <v>167</v>
       </c>
       <c r="J1125">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1125">
         <v>30.06</v>
@@ -50585,7 +50585,7 @@
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1126" spans="1:13">
@@ -50658,7 +50658,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1127">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1127">
         <v>32.26609756097561</v>
@@ -50667,7 +50667,7 @@
         <v>0</v>
       </c>
       <c r="M1127">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1128" spans="1:13">
@@ -50781,7 +50781,7 @@
         <v>122.0243902439024</v>
       </c>
       <c r="J1130">
-        <v>127.580542844809</v>
+        <v>108.2528513058493</v>
       </c>
       <c r="K1130">
         <v>21.96439024390244</v>
@@ -50790,7 +50790,7 @@
         <v>0</v>
       </c>
       <c r="M1130">
-        <v>105.6161526009066</v>
+        <v>86.2884610619469</v>
       </c>
     </row>
     <row r="1131" spans="1:13">
@@ -50822,7 +50822,7 @@
         <v>122.0243902439024</v>
       </c>
       <c r="J1131">
-        <v>127.580542844809</v>
+        <v>108.2528513058493</v>
       </c>
       <c r="K1131">
         <v>21.96439024390244</v>
@@ -50831,7 +50831,7 @@
         <v>0</v>
       </c>
       <c r="M1131">
-        <v>105.6161526009066</v>
+        <v>86.2884610619469</v>
       </c>
     </row>
     <row r="1132" spans="1:13">
@@ -50986,7 +50986,7 @@
         <v>325.8170731707318</v>
       </c>
       <c r="J1135">
-        <v>341.8318578674725</v>
+        <v>290.2250284804662</v>
       </c>
       <c r="K1135">
         <v>58.64707317073172</v>
@@ -50995,7 +50995,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>283.1847846967408</v>
+        <v>231.5779553097345</v>
       </c>
     </row>
     <row r="1136" spans="1:13">
@@ -51191,7 +51191,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1140">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K1140">
         <v>25.75756097560976</v>
@@ -51200,7 +51200,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="1141" spans="1:13">
@@ -51232,7 +51232,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1141">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K1141">
         <v>25.75756097560976</v>
@@ -51241,7 +51241,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="1142" spans="1:13">
@@ -51598,7 +51598,7 @@
         <v>167</v>
       </c>
       <c r="J1150">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1150">
         <v>30.06</v>
@@ -51607,7 +51607,7 @@
         <v>0</v>
       </c>
       <c r="M1150">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1151" spans="1:13">
@@ -51762,7 +51762,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1154">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1154">
         <v>32.26609756097561</v>
@@ -51771,7 +51771,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1155" spans="1:13">
@@ -52254,7 +52254,7 @@
         <v>143.0975609756098</v>
       </c>
       <c r="J1166">
-        <v>149.917171379236</v>
+        <v>127.2516574357868</v>
       </c>
       <c r="K1166">
         <v>25.75756097560976</v>
@@ -52263,7 +52263,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>124.1596104036262</v>
+        <v>101.494096460177</v>
       </c>
     </row>
     <row r="1167" spans="1:13">
@@ -52664,7 +52664,7 @@
         <v>167</v>
       </c>
       <c r="J1176">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1176">
         <v>30.06</v>
@@ -52673,7 +52673,7 @@
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1177" spans="1:13">
@@ -53033,7 +53033,7 @@
         <v>146.5609756097561</v>
       </c>
       <c r="J1185">
-        <v>153.5882376429959</v>
+        <v>130.3741464062163</v>
       </c>
       <c r="K1185">
         <v>26.3809756097561</v>
@@ -53042,7 +53042,7 @@
         <v>0</v>
       </c>
       <c r="M1185">
-        <v>127.2072620332398</v>
+        <v>103.9931707964602</v>
       </c>
     </row>
     <row r="1186" spans="1:13">
@@ -53566,7 +53566,7 @@
         <v>169.6707317073171</v>
       </c>
       <c r="J1198">
-        <v>178.083556550831</v>
+        <v>151.209064008202</v>
       </c>
       <c r="K1198">
         <v>30.54073170731708</v>
@@ -53575,7 +53575,7 @@
         <v>0</v>
       </c>
       <c r="M1198">
-        <v>147.542824843514</v>
+        <v>120.668332300885</v>
       </c>
     </row>
     <row r="1199" spans="1:13">
@@ -53604,7 +53604,7 @@
         <v>190.5</v>
       </c>
       <c r="J1199">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K1199">
         <v>34.29000000000001</v>
@@ -53613,7 +53613,7 @@
         <v>0</v>
       </c>
       <c r="M1199">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="1200" spans="1:13">
@@ -53642,7 +53642,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1200">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1200">
         <v>32.26609756097561</v>
@@ -53651,7 +53651,7 @@
         <v>0</v>
       </c>
       <c r="M1200">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1201" spans="1:13">
@@ -53724,7 +53724,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1202">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1202">
         <v>32.26609756097561</v>
@@ -53733,7 +53733,7 @@
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1203" spans="1:13">
@@ -53765,7 +53765,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1203">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1203">
         <v>32.26609756097561</v>
@@ -53774,7 +53774,7 @@
         <v>0</v>
       </c>
       <c r="M1203">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1204" spans="1:13">
@@ -53847,7 +53847,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1205">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1205">
         <v>32.26609756097561</v>
@@ -53856,7 +53856,7 @@
         <v>0</v>
       </c>
       <c r="M1205">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1206" spans="1:13">
@@ -54421,7 +54421,7 @@
         <v>209.4268292682927</v>
       </c>
       <c r="J1219">
-        <v>220.2232608461041</v>
+        <v>187.0517190913015</v>
       </c>
       <c r="K1219">
         <v>37.69682926829268</v>
@@ -54430,7 +54430,7 @@
         <v>0</v>
       </c>
       <c r="M1219">
-        <v>182.5264315778114</v>
+        <v>149.3548898230089</v>
       </c>
     </row>
     <row r="1220" spans="1:13">
@@ -54623,7 +54623,7 @@
         <v>167</v>
       </c>
       <c r="J1224">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1224">
         <v>30.06</v>
@@ -54632,7 +54632,7 @@
         <v>0</v>
       </c>
       <c r="M1224">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1225" spans="1:13">
@@ -54787,7 +54787,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1228">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1228">
         <v>32.26609756097561</v>
@@ -54796,7 +54796,7 @@
         <v>0</v>
       </c>
       <c r="M1228">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1229" spans="1:13">
@@ -55197,7 +55197,7 @@
         <v>173.7560975609756</v>
       </c>
       <c r="J1238">
-        <v>182.4138635873085</v>
+        <v>154.8922816317721</v>
       </c>
       <c r="K1238">
         <v>31.27609756097561</v>
@@ -55206,7 +55206,7 @@
         <v>0</v>
       </c>
       <c r="M1238">
-        <v>151.1377660263329</v>
+        <v>123.6161840707965</v>
       </c>
     </row>
     <row r="1239" spans="1:13">
@@ -55320,7 +55320,7 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J1241">
-        <v>191.5010452190805</v>
+        <v>162.6215413015325</v>
       </c>
       <c r="K1241">
         <v>32.81926829268293</v>
@@ -55329,7 +55329,7 @@
         <v>0</v>
       </c>
       <c r="M1241">
-        <v>158.6817769263976</v>
+        <v>129.8022730088496</v>
       </c>
     </row>
     <row r="1242" spans="1:13">
@@ -55358,7 +55358,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1242">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1242">
         <v>32.26609756097561</v>
@@ -55367,7 +55367,7 @@
         <v>0</v>
       </c>
       <c r="M1242">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1243" spans="1:13">
@@ -55522,7 +55522,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1246">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1246">
         <v>32.26609756097561</v>
@@ -55531,7 +55531,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1247" spans="1:13">
@@ -55645,7 +55645,7 @@
         <v>190.5</v>
       </c>
       <c r="J1249">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K1249">
         <v>34.29000000000001</v>
@@ -55654,7 +55654,7 @@
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="1250" spans="1:13">
@@ -56342,7 +56342,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1266">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1266">
         <v>32.26609756097561</v>
@@ -56351,7 +56351,7 @@
         <v>0</v>
       </c>
       <c r="M1266">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1267" spans="1:13">
@@ -56383,7 +56383,7 @@
         <v>167</v>
       </c>
       <c r="J1267">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1267">
         <v>30.06</v>
@@ -56392,7 +56392,7 @@
         <v>0</v>
       </c>
       <c r="M1267">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1268" spans="1:13">
@@ -56547,7 +56547,7 @@
         <v>188.4634146341463</v>
       </c>
       <c r="J1271">
-        <v>198.0029689186272</v>
+        <v>168.1518650766242</v>
       </c>
       <c r="K1271">
         <v>33.92341463414634</v>
@@ -56556,7 +56556,7 @@
         <v>0</v>
       </c>
       <c r="M1271">
-        <v>164.0795542844809</v>
+        <v>134.2284504424779</v>
       </c>
     </row>
     <row r="1272" spans="1:13">
@@ -58064,7 +58064,7 @@
         <v>153.3048780487805</v>
       </c>
       <c r="J1308">
-        <v>160.736475825599</v>
+        <v>136.4542041549752</v>
       </c>
       <c r="K1308">
         <v>27.59487804878049</v>
@@ -58073,7 +58073,7 @@
         <v>0</v>
       </c>
       <c r="M1308">
-        <v>133.1415977768185</v>
+        <v>108.8593261061947</v>
       </c>
     </row>
     <row r="1309" spans="1:13">
@@ -58433,7 +58433,7 @@
         <v>190.5</v>
       </c>
       <c r="J1317">
-        <v>200.1616592920354</v>
+        <v>169.9879765486726</v>
       </c>
       <c r="K1317">
         <v>34.29000000000001</v>
@@ -58442,7 +58442,7 @@
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>165.8716592920354</v>
+        <v>135.6979765486726</v>
       </c>
     </row>
     <row r="1318" spans="1:13">
@@ -58515,7 +58515,7 @@
         <v>176.1951219512195</v>
       </c>
       <c r="J1319">
-        <v>184.9991215195338</v>
+        <v>157.0912175264407</v>
       </c>
       <c r="K1319">
         <v>31.71512195121951</v>
@@ -58524,7 +58524,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>153.2839995683143</v>
+        <v>125.3760955752212</v>
       </c>
     </row>
     <row r="1320" spans="1:13">
@@ -58556,7 +58556,7 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1320">
-        <v>229.4138527951651</v>
+        <v>194.8689361968487</v>
       </c>
       <c r="K1320">
         <v>39.25756097560976</v>
@@ -58565,7 +58565,7 @@
         <v>0</v>
       </c>
       <c r="M1320">
-        <v>190.1562918195554</v>
+        <v>155.611375221239</v>
       </c>
     </row>
     <row r="1321" spans="1:13">
@@ -58638,7 +58638,7 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1322">
-        <v>229.4138527951651</v>
+        <v>194.8689361968487</v>
       </c>
       <c r="K1322">
         <v>39.25756097560976</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="M1322">
-        <v>190.1562918195554</v>
+        <v>155.611375221239</v>
       </c>
     </row>
     <row r="1323" spans="1:13">
@@ -58761,7 +58761,7 @@
         <v>218.0975609756098</v>
       </c>
       <c r="J1325">
-        <v>229.4138527951651</v>
+        <v>194.8689361968487</v>
       </c>
       <c r="K1325">
         <v>39.25756097560976</v>
@@ -58770,7 +58770,7 @@
         <v>0</v>
       </c>
       <c r="M1325">
-        <v>190.1562918195554</v>
+        <v>155.611375221239</v>
       </c>
     </row>
     <row r="1326" spans="1:13">
@@ -58922,7 +58922,7 @@
         <v>167</v>
       </c>
       <c r="J1329">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1329">
         <v>30.06</v>
@@ -58931,7 +58931,7 @@
         <v>0</v>
       </c>
       <c r="M1329">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1330" spans="1:13">
@@ -58960,7 +58960,7 @@
         <v>167</v>
       </c>
       <c r="J1330">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1330">
         <v>30.06</v>
@@ -58969,7 +58969,7 @@
         <v>0</v>
       </c>
       <c r="M1330">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1331" spans="1:13">
@@ -59165,7 +59165,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1335">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1335">
         <v>32.26609756097561</v>
@@ -59174,7 +59174,7 @@
         <v>0</v>
       </c>
       <c r="M1335">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1336" spans="1:13">
@@ -59206,7 +59206,7 @@
         <v>167</v>
       </c>
       <c r="J1336">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1336">
         <v>30.06</v>
@@ -59215,7 +59215,7 @@
         <v>0</v>
       </c>
       <c r="M1336">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1337" spans="1:13">
@@ -59534,7 +59534,7 @@
         <v>205.8292682926829</v>
       </c>
       <c r="J1344">
-        <v>216.4100053960717</v>
+        <v>183.8082886466652</v>
       </c>
       <c r="K1344">
         <v>37.04926829268292</v>
@@ -59543,7 +59543,7 @@
         <v>0</v>
       </c>
       <c r="M1344">
-        <v>179.3607371033887</v>
+        <v>146.7590203539823</v>
       </c>
     </row>
     <row r="1345" spans="1:13">
@@ -60313,7 +60313,7 @@
         <v>219</v>
       </c>
       <c r="J1363">
-        <v>230.3703982300885</v>
+        <v>195.6825424778762</v>
       </c>
       <c r="K1363">
         <v>39.42</v>
@@ -60322,7 +60322,7 @@
         <v>0</v>
       </c>
       <c r="M1363">
-        <v>190.9503982300885</v>
+        <v>156.2625424778761</v>
       </c>
     </row>
     <row r="1364" spans="1:13">
@@ -60395,7 +60395,7 @@
         <v>167</v>
       </c>
       <c r="J1365">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1365">
         <v>30.06</v>
@@ -60404,7 +60404,7 @@
         <v>0</v>
       </c>
       <c r="M1365">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1366" spans="1:13">
@@ -61051,7 +61051,7 @@
         <v>155.3536585365854</v>
       </c>
       <c r="J1381">
-        <v>162.9080924886683</v>
+        <v>138.3013103064969</v>
       </c>
       <c r="K1381">
         <v>27.96365853658537</v>
@@ -61060,7 +61060,7 @@
         <v>0</v>
       </c>
       <c r="M1381">
-        <v>134.9444339520829</v>
+        <v>110.3376517699115</v>
       </c>
     </row>
     <row r="1382" spans="1:13">
@@ -61335,7 +61335,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1388">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1388">
         <v>32.26609756097561</v>
@@ -61344,7 +61344,7 @@
         <v>0</v>
       </c>
       <c r="M1388">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1389" spans="1:13">
@@ -61376,7 +61376,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1389">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1389">
         <v>32.26609756097561</v>
@@ -61385,7 +61385,7 @@
         <v>0</v>
       </c>
       <c r="M1389">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1390" spans="1:13">
@@ -61745,7 +61745,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1398">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1398">
         <v>32.26609756097561</v>
@@ -61754,7 +61754,7 @@
         <v>0</v>
       </c>
       <c r="M1398">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1399" spans="1:13">
@@ -61827,7 +61827,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1400">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1400">
         <v>32.26609756097561</v>
@@ -61836,7 +61836,7 @@
         <v>0</v>
       </c>
       <c r="M1400">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1401" spans="1:13">
@@ -61991,7 +61991,7 @@
         <v>182.3292682926829</v>
       </c>
       <c r="J1404">
-        <v>191.5010452190805</v>
+        <v>162.6215413015325</v>
       </c>
       <c r="K1404">
         <v>32.81926829268293</v>
@@ -62000,7 +62000,7 @@
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>158.6817769263976</v>
+        <v>129.8022730088496</v>
       </c>
     </row>
     <row r="1405" spans="1:13">
@@ -62729,7 +62729,7 @@
         <v>179.2560975609756</v>
       </c>
       <c r="J1422">
-        <v>188.2436202244766</v>
+        <v>159.85088207425</v>
       </c>
       <c r="K1422">
         <v>32.26609756097561</v>
@@ -62738,7 +62738,7 @@
         <v>0</v>
       </c>
       <c r="M1422">
-        <v>155.977522663501</v>
+        <v>127.5847845132744</v>
       </c>
     </row>
     <row r="1423" spans="1:13">
@@ -62975,7 +62975,7 @@
         <v>211.9756097560976</v>
       </c>
       <c r="J1428">
-        <v>222.9248553852795</v>
+        <v>189.3496071012303</v>
       </c>
       <c r="K1428">
         <v>38.15560975609756</v>
@@ -62984,7 +62984,7 @@
         <v>0</v>
       </c>
       <c r="M1428">
-        <v>184.769245629182</v>
+        <v>151.1939973451327</v>
       </c>
     </row>
     <row r="1429" spans="1:13">
@@ -63426,7 +63426,7 @@
         <v>167</v>
       </c>
       <c r="J1439">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1439">
         <v>30.06</v>
@@ -63435,7 +63435,7 @@
         <v>0</v>
       </c>
       <c r="M1439">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1440" spans="1:13">
@@ -63508,7 +63508,7 @@
         <v>167</v>
       </c>
       <c r="J1441">
-        <v>175.2526991150443</v>
+        <v>148.8012292035398</v>
       </c>
       <c r="K1441">
         <v>30.06</v>
@@ -63517,7 +63517,7 @@
         <v>0</v>
       </c>
       <c r="M1441">
-        <v>145.1926991150443</v>
+        <v>118.7412292035398</v>
       </c>
     </row>
     <row r="1442" spans="1:13">

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="260">
   <si>
     <t>booking_id</t>
   </si>
@@ -322,6 +322,150 @@
     <t>Alex Chown</t>
   </si>
   <si>
+    <t>Qiwen Jin; Chongzhi Liu</t>
+  </si>
+  <si>
+    <t>Aggelos Vlachos</t>
+  </si>
+  <si>
+    <t>Lei Zhang</t>
+  </si>
+  <si>
+    <t>Karthikeyan Dhandapani</t>
+  </si>
+  <si>
+    <t>Katya Baronos</t>
+  </si>
+  <si>
+    <t>Mathilde Guibert</t>
+  </si>
+  <si>
+    <t>Brittney Cook</t>
+  </si>
+  <si>
+    <t>Stelios Vathrakokoilis</t>
+  </si>
+  <si>
+    <t>Ηλίας Τζόκας</t>
+  </si>
+  <si>
+    <t>HASAN TANYILDIZ FATÄ°H ÃAKAR BARAN TAÅKIRAN ALÄ° KAAN TANYILDIZ</t>
+  </si>
+  <si>
+    <t>Hasan Tanyildiz Fatä°h Ãakar Baran Taåkiran Alä° Kaan Tanyildiz</t>
+  </si>
+  <si>
+    <t>Yuliia Shumska</t>
+  </si>
+  <si>
+    <t>Celia Thompson</t>
+  </si>
+  <si>
+    <t>Hayder Alsarraf</t>
+  </si>
+  <si>
+    <t>STAVROS GIOTIS</t>
+  </si>
+  <si>
+    <t>Giulia Berkitz</t>
+  </si>
+  <si>
+    <t>Nora Abdul Karim</t>
+  </si>
+  <si>
+    <t>Isabella Fencl</t>
+  </si>
+  <si>
+    <t>Γιώργος Μουζακης</t>
+  </si>
+  <si>
+    <t>Zoi Kantaraki</t>
+  </si>
+  <si>
+    <t>Vitaly Kaplan</t>
+  </si>
+  <si>
+    <t>Sibora Marku</t>
+  </si>
+  <si>
+    <t>Aibhínn Conway</t>
+  </si>
+  <si>
+    <t>Aleksandra Tarnowska</t>
+  </si>
+  <si>
+    <t>Michał Ciszewski</t>
+  </si>
+  <si>
+    <t>HONGYING HU</t>
+  </si>
+  <si>
+    <t>Sevasti Aslanidou</t>
+  </si>
+  <si>
+    <t>Παολα Μπανακα</t>
+  </si>
+  <si>
+    <t>Μαρια Τσεκουρα</t>
+  </si>
+  <si>
+    <t>Eric Zweers</t>
+  </si>
+  <si>
+    <t>Dieter Brandenburger</t>
+  </si>
+  <si>
+    <t>Teddi King</t>
+  </si>
+  <si>
+    <t>Maria Kontaxaki</t>
+  </si>
+  <si>
+    <t>אפרת רזיאל</t>
+  </si>
+  <si>
+    <t>Mathis Mourey</t>
+  </si>
+  <si>
+    <t>Adrian Manole</t>
+  </si>
+  <si>
+    <t>vasileios Ntostas</t>
+  </si>
+  <si>
+    <t>jaap van ark</t>
+  </si>
+  <si>
+    <t>GRIGORIOS TSEKLIDIS</t>
+  </si>
+  <si>
+    <t>Kevin Mchugh</t>
+  </si>
+  <si>
+    <t>Omri Mayoset</t>
+  </si>
+  <si>
+    <t>Μανωλης Ιτσιος</t>
+  </si>
+  <si>
+    <t>IOANNIS KOYMPANAKIS</t>
+  </si>
+  <si>
+    <t>Juan Manuel Diaz Molero</t>
+  </si>
+  <si>
+    <t>Huiying Wang</t>
+  </si>
+  <si>
+    <t>Martin Frano</t>
+  </si>
+  <si>
+    <t>E Reed</t>
+  </si>
+  <si>
+    <t>Dominique Thirion</t>
+  </si>
+  <si>
     <t>2025-06-30</t>
   </si>
   <si>
@@ -499,6 +643,132 @@
     <t>2025-08-31</t>
   </si>
   <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
     <t>2025-08-12</t>
   </si>
   <si>
@@ -512,6 +782,18 @@
   </si>
   <si>
     <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
   </si>
 </sst>
 </file>
@@ -869,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,10 +1215,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -974,10 +1256,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1015,10 +1297,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1056,10 +1338,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1097,10 +1379,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1138,10 +1420,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1179,10 +1461,10 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1220,10 +1502,10 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1261,10 +1543,10 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -1302,10 +1584,10 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1343,10 +1625,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1384,10 +1666,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1425,10 +1707,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1466,10 +1748,10 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1507,10 +1789,10 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -1548,10 +1830,10 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1589,10 +1871,10 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1630,10 +1912,10 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="H19">
         <v>6</v>
@@ -1671,10 +1953,10 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1712,10 +1994,10 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1753,10 +2035,10 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1794,10 +2076,10 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1835,10 +2117,10 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1876,10 +2158,10 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1917,10 +2199,10 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1958,10 +2240,10 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -1999,10 +2281,10 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2040,10 +2322,10 @@
         <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -2081,10 +2363,10 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -2122,10 +2404,10 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2163,10 +2445,10 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -2204,10 +2486,10 @@
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="H33">
         <v>7</v>
@@ -2245,10 +2527,10 @@
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -2286,10 +2568,10 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="I35">
         <v>264.05</v>
@@ -2324,10 +2606,10 @@
         <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H36">
         <v>4</v>
@@ -2365,10 +2647,10 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -2406,10 +2688,10 @@
         <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="G38" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -2447,10 +2729,10 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -2488,10 +2770,10 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -2529,10 +2811,10 @@
         <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2570,10 +2852,10 @@
         <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -2611,10 +2893,10 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -2652,10 +2934,10 @@
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -2693,10 +2975,10 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -2734,10 +3016,10 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2775,10 +3057,10 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -2816,10 +3098,10 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -2857,10 +3139,10 @@
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2898,10 +3180,10 @@
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -2939,10 +3221,10 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -2980,10 +3262,10 @@
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -3021,10 +3303,10 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3062,10 +3344,10 @@
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -3103,10 +3385,10 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -3144,10 +3426,10 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -3185,10 +3467,10 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -3226,10 +3508,10 @@
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -3267,10 +3549,10 @@
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -3308,10 +3590,10 @@
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -3349,10 +3631,10 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -3390,10 +3672,10 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -3431,10 +3713,10 @@
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -3472,10 +3754,10 @@
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -3513,10 +3795,10 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -3554,10 +3836,10 @@
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H66">
         <v>7</v>
@@ -3595,10 +3877,10 @@
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H67">
         <v>7</v>
@@ -3636,10 +3918,10 @@
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="H68">
         <v>6</v>
@@ -3677,10 +3959,10 @@
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="H69">
         <v>4</v>
@@ -3718,10 +4000,10 @@
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -3759,10 +4041,10 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -3800,10 +4082,10 @@
         <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -3841,10 +4123,10 @@
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -3882,10 +4164,10 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -3923,10 +4205,10 @@
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="H75">
         <v>6</v>
@@ -3964,10 +4246,10 @@
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="G76" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -4005,10 +4287,10 @@
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -4046,10 +4328,10 @@
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -4087,10 +4369,10 @@
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -4128,10 +4410,10 @@
         <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -4169,10 +4451,10 @@
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -4210,10 +4492,10 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="H82">
         <v>7</v>
@@ -4251,10 +4533,10 @@
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="G83" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -4292,10 +4574,10 @@
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="H84">
         <v>5</v>
@@ -4333,10 +4615,10 @@
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -4374,10 +4656,10 @@
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="G86" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -4396,6 +4678,2056 @@
       </c>
       <c r="M86">
         <v>144.0538951327434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>77786193</v>
+      </c>
+      <c r="B87">
+        <v>1713746</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" t="s">
+        <v>210</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="J87">
+        <v>77.08412389380531</v>
+      </c>
+      <c r="K87">
+        <v>14.8736</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>62.21052389380532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>81379048</v>
+      </c>
+      <c r="B88">
+        <v>1713746</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" t="s">
+        <v>209</v>
+      </c>
+      <c r="G88" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>160</v>
+      </c>
+      <c r="J88">
+        <v>137.2730973451328</v>
+      </c>
+      <c r="K88">
+        <v>24</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>113.2730973451328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>78596428</v>
+      </c>
+      <c r="B89">
+        <v>1713746</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89" t="s">
+        <v>211</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>107.6</v>
+      </c>
+      <c r="J89">
+        <v>92.92332743362832</v>
+      </c>
+      <c r="K89">
+        <v>17.8616</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>75.06172743362832</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>75952428</v>
+      </c>
+      <c r="B90">
+        <v>1713746</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>211</v>
+      </c>
+      <c r="G90" t="s">
+        <v>212</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>135</v>
+      </c>
+      <c r="J90">
+        <v>117.0341150442478</v>
+      </c>
+      <c r="K90">
+        <v>20.25</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>96.7841150442478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>75569813</v>
+      </c>
+      <c r="B91">
+        <v>1713746</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>212</v>
+      </c>
+      <c r="G91" t="s">
+        <v>213</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>130.1</v>
+      </c>
+      <c r="J91">
+        <v>112.7223318584071</v>
+      </c>
+      <c r="K91">
+        <v>21.5966</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>91.12573185840709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>81391913</v>
+      </c>
+      <c r="B92">
+        <v>1713746</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" t="s">
+        <v>212</v>
+      </c>
+      <c r="G92" t="s">
+        <v>213</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>75.2</v>
+      </c>
+      <c r="J92">
+        <v>64.41276106194691</v>
+      </c>
+      <c r="K92">
+        <v>12.4832</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>51.92956106194691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>76489493</v>
+      </c>
+      <c r="B93">
+        <v>1713746</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="J93">
+        <v>73.12432300884956</v>
+      </c>
+      <c r="K93">
+        <v>14.1266</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>58.99772300884956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>82673393</v>
+      </c>
+      <c r="B94">
+        <v>1713746</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s">
+        <v>213</v>
+      </c>
+      <c r="G94" t="s">
+        <v>214</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>86.23566371681417</v>
+      </c>
+      <c r="K94">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>71.23566371681417</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>81806793</v>
+      </c>
+      <c r="B95">
+        <v>1713746</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" t="s">
+        <v>215</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>120.2</v>
+      </c>
+      <c r="J95">
+        <v>104.0107699115044</v>
+      </c>
+      <c r="K95">
+        <v>19.9532</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>84.05756991150443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>72919193</v>
+      </c>
+      <c r="B96">
+        <v>1713746</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" t="s">
+        <v>216</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>949.49</v>
+      </c>
+      <c r="J96">
+        <v>823.1898066371682</v>
+      </c>
+      <c r="K96">
+        <v>157.61534</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>665.5744666371681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>83228268</v>
+      </c>
+      <c r="B97">
+        <v>1713746</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F97" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" t="s">
+        <v>217</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>250</v>
+      </c>
+      <c r="J97">
+        <v>216.4691150442478</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>216.4691150442478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>83872873</v>
+      </c>
+      <c r="B98">
+        <v>1713746</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" t="s">
+        <v>217</v>
+      </c>
+      <c r="G98" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>89.3</v>
+      </c>
+      <c r="J98">
+        <v>76.8201371681416</v>
+      </c>
+      <c r="K98">
+        <v>14.8238</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>61.9963371681416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>82517398</v>
+      </c>
+      <c r="B99">
+        <v>1713746</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" t="s">
+        <v>218</v>
+      </c>
+      <c r="G99" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>206.7073170731707</v>
+      </c>
+      <c r="J99">
+        <v>215.5807867472481</v>
+      </c>
+      <c r="K99">
+        <v>37.20731707317074</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>178.3734696740773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>79704508</v>
+      </c>
+      <c r="B100">
+        <v>1713746</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" t="s">
+        <v>219</v>
+      </c>
+      <c r="G100" t="s">
+        <v>220</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>340.4</v>
+      </c>
+      <c r="J100">
+        <v>292.4972920353982</v>
+      </c>
+      <c r="K100">
+        <v>56.5064</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>235.9908920353982</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>80471703</v>
+      </c>
+      <c r="B101">
+        <v>1713746</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" t="s">
+        <v>220</v>
+      </c>
+      <c r="G101" t="s">
+        <v>257</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>354.8</v>
+      </c>
+      <c r="J101">
+        <v>305.1686548672567</v>
+      </c>
+      <c r="K101">
+        <v>58.89680000000001</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>246.2718548672567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>72827933</v>
+      </c>
+      <c r="B102">
+        <v>1713746</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" t="s">
+        <v>258</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>127.4</v>
+      </c>
+      <c r="J102">
+        <v>110.3464513274337</v>
+      </c>
+      <c r="K102">
+        <v>21.1484</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>89.19805132743366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>74915298</v>
+      </c>
+      <c r="B103">
+        <v>1713746</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" t="s">
+        <v>222</v>
+      </c>
+      <c r="G103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>117.5</v>
+      </c>
+      <c r="J103">
+        <v>101.634889380531</v>
+      </c>
+      <c r="K103">
+        <v>19.505</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>82.12988938053098</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>84671818</v>
+      </c>
+      <c r="B104">
+        <v>1713746</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G104" t="s">
+        <v>224</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>76.7</v>
+      </c>
+      <c r="J104">
+        <v>65.73269469026549</v>
+      </c>
+      <c r="K104">
+        <v>12.7322</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>53.00049469026549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>82472488</v>
+      </c>
+      <c r="B105">
+        <v>1713746</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" t="s">
+        <v>224</v>
+      </c>
+      <c r="G105" t="s">
+        <v>225</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>120.2</v>
+      </c>
+      <c r="J105">
+        <v>104.0107699115044</v>
+      </c>
+      <c r="K105">
+        <v>19.9532</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>84.05756991150443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>82605673</v>
+      </c>
+      <c r="B106">
+        <v>1713746</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" t="s">
+        <v>226</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>97.7</v>
+      </c>
+      <c r="J106">
+        <v>84.21176548672568</v>
+      </c>
+      <c r="K106">
+        <v>16.2182</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>67.99356548672569</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>72435618</v>
+      </c>
+      <c r="B107">
+        <v>1713746</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" t="s">
+        <v>226</v>
+      </c>
+      <c r="G107" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>120.2</v>
+      </c>
+      <c r="J107">
+        <v>104.0107699115044</v>
+      </c>
+      <c r="K107">
+        <v>19.9532</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>84.05756991150443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>80067733</v>
+      </c>
+      <c r="B108">
+        <v>1713746</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" t="s">
+        <v>228</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>142.7</v>
+      </c>
+      <c r="J108">
+        <v>123.8097743362832</v>
+      </c>
+      <c r="K108">
+        <v>23.6882</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>100.1215743362832</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>86196838</v>
+      </c>
+      <c r="B109">
+        <v>1713746</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" t="s">
+        <v>227</v>
+      </c>
+      <c r="G109" t="s">
+        <v>228</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>134.3</v>
+      </c>
+      <c r="J109">
+        <v>116.4181460176991</v>
+      </c>
+      <c r="K109">
+        <v>22.2938</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>94.12434601769912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>85544218</v>
+      </c>
+      <c r="B110">
+        <v>1713746</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" t="s">
+        <v>228</v>
+      </c>
+      <c r="G110" t="s">
+        <v>229</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>76.7</v>
+      </c>
+      <c r="J110">
+        <v>65.73269469026549</v>
+      </c>
+      <c r="K110">
+        <v>12.7322</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>53.00049469026549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>79076918</v>
+      </c>
+      <c r="B111">
+        <v>1713746</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111">
+        <v>120.2</v>
+      </c>
+      <c r="J111">
+        <v>104.0107699115044</v>
+      </c>
+      <c r="K111">
+        <v>19.9532</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>84.05756991150443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <v>85893728</v>
+      </c>
+      <c r="B112">
+        <v>1713746</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>93.47560975609757</v>
+      </c>
+      <c r="J112">
+        <v>97.32009874811139</v>
+      </c>
+      <c r="K112">
+        <v>16.82560975609756</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>80.49448899201383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>84673278</v>
+      </c>
+      <c r="B113">
+        <v>1713746</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>119</v>
+      </c>
+      <c r="F113" t="s">
+        <v>231</v>
+      </c>
+      <c r="G113" t="s">
+        <v>232</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>106.4</v>
+      </c>
+      <c r="J113">
+        <v>91.86738053097346</v>
+      </c>
+      <c r="K113">
+        <v>17.6624</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>74.20498053097346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>84823953</v>
+      </c>
+      <c r="B114">
+        <v>1713746</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" t="s">
+        <v>233</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>119</v>
+      </c>
+      <c r="J114">
+        <v>102.9548230088496</v>
+      </c>
+      <c r="K114">
+        <v>19.754</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>83.20082300884957</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>86865103</v>
+      </c>
+      <c r="B115">
+        <v>1713746</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" t="s">
+        <v>234</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>111.8</v>
+      </c>
+      <c r="J115">
+        <v>96.61914159292036</v>
+      </c>
+      <c r="K115">
+        <v>18.5588</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>78.06034159292035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>86956048</v>
+      </c>
+      <c r="B116">
+        <v>1713746</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>130</v>
+      </c>
+      <c r="F116" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" t="s">
+        <v>235</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>61.4</v>
+      </c>
+      <c r="J116">
+        <v>52.26937168141593</v>
+      </c>
+      <c r="K116">
+        <v>10.1924</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>42.07697168141593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
+        <v>85821093</v>
+      </c>
+      <c r="B117">
+        <v>1713746</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" t="s">
+        <v>235</v>
+      </c>
+      <c r="G117" t="s">
+        <v>236</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>76.7</v>
+      </c>
+      <c r="J117">
+        <v>65.73269469026549</v>
+      </c>
+      <c r="K117">
+        <v>12.7322</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>53.00049469026549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>87195093</v>
+      </c>
+      <c r="B118">
+        <v>1713746</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" t="s">
+        <v>236</v>
+      </c>
+      <c r="G118" t="s">
+        <v>237</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>66.8</v>
+      </c>
+      <c r="J118">
+        <v>57.02113274336283</v>
+      </c>
+      <c r="K118">
+        <v>11.0888</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>45.93233274336284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
+        <v>84277843</v>
+      </c>
+      <c r="B119">
+        <v>1713746</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>133</v>
+      </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+      <c r="G119" t="s">
+        <v>238</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>108.8536585365854</v>
+      </c>
+      <c r="J119">
+        <v>113.6201500107922</v>
+      </c>
+      <c r="K119">
+        <v>19.59365853658537</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>94.02649147420681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>87210478</v>
+      </c>
+      <c r="B120">
+        <v>1713746</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>239</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>133.6</v>
+      </c>
+      <c r="J120">
+        <v>114.0422654867257</v>
+      </c>
+      <c r="K120">
+        <v>22.1776</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>91.86466548672567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>87646743</v>
+      </c>
+      <c r="B121">
+        <v>1713746</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" t="s">
+        <v>239</v>
+      </c>
+      <c r="G121" t="s">
+        <v>240</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="J121">
+        <v>65.20472123893805</v>
+      </c>
+      <c r="K121">
+        <v>11.415</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>53.78972123893805</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>87811138</v>
+      </c>
+      <c r="B122">
+        <v>1713746</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" t="s">
+        <v>241</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>61.4</v>
+      </c>
+      <c r="J122">
+        <v>52.26937168141593</v>
+      </c>
+      <c r="K122">
+        <v>10.1924</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>42.07697168141593</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>87803183</v>
+      </c>
+      <c r="B123">
+        <v>1713746</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" t="s">
+        <v>241</v>
+      </c>
+      <c r="G123" t="s">
+        <v>242</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>61.4</v>
+      </c>
+      <c r="J123">
+        <v>52.26937168141593</v>
+      </c>
+      <c r="K123">
+        <v>10.1924</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>42.07697168141593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>87824378</v>
+      </c>
+      <c r="B124">
+        <v>1713746</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" t="s">
+        <v>242</v>
+      </c>
+      <c r="G124" t="s">
+        <v>243</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>66.8</v>
+      </c>
+      <c r="J124">
+        <v>57.02113274336283</v>
+      </c>
+      <c r="K124">
+        <v>11.0888</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>45.93233274336284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>70068436</v>
+      </c>
+      <c r="B125">
+        <v>1713746</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" t="s">
+        <v>242</v>
+      </c>
+      <c r="G125" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
+        <v>231.7</v>
+      </c>
+      <c r="J125">
+        <v>200.3659247787611</v>
+      </c>
+      <c r="K125">
+        <v>38.4622</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>161.9037247787611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>87695273</v>
+      </c>
+      <c r="B126">
+        <v>1713746</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" t="s">
+        <v>244</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>66.8</v>
+      </c>
+      <c r="J126">
+        <v>57.02113274336283</v>
+      </c>
+      <c r="K126">
+        <v>11.0888</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>45.93233274336284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>84782308</v>
+      </c>
+      <c r="B127">
+        <v>1713746</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127" t="s">
+        <v>244</v>
+      </c>
+      <c r="G127" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>96.5</v>
+      </c>
+      <c r="J127">
+        <v>83.15581858407081</v>
+      </c>
+      <c r="K127">
+        <v>16.019</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>67.13681858407081</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>84361328</v>
+      </c>
+      <c r="B128">
+        <v>1713746</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>142</v>
+      </c>
+      <c r="F128" t="s">
+        <v>245</v>
+      </c>
+      <c r="G128" t="s">
+        <v>246</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>141.5</v>
+      </c>
+      <c r="J128">
+        <v>122.7538274336283</v>
+      </c>
+      <c r="K128">
+        <v>23.489</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>99.26482743362833</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>86316733</v>
+      </c>
+      <c r="B129">
+        <v>1713746</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>142</v>
+      </c>
+      <c r="F129" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" t="s">
+        <v>246</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129">
+        <v>164</v>
+      </c>
+      <c r="J129">
+        <v>142.5528318584071</v>
+      </c>
+      <c r="K129">
+        <v>27.224</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>115.3288318584071</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>88476958</v>
+      </c>
+      <c r="B130">
+        <v>1713746</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>143</v>
+      </c>
+      <c r="F130" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" t="s">
+        <v>247</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>61.4</v>
+      </c>
+      <c r="J130">
+        <v>52.26937168141593</v>
+      </c>
+      <c r="K130">
+        <v>10.1924</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>42.07697168141593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>88523793</v>
+      </c>
+      <c r="B131">
+        <v>1713746</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>144</v>
+      </c>
+      <c r="F131" t="s">
+        <v>247</v>
+      </c>
+      <c r="G131" t="s">
+        <v>248</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>106.4</v>
+      </c>
+      <c r="J131">
+        <v>91.86738053097346</v>
+      </c>
+      <c r="K131">
+        <v>17.6624</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>74.20498053097346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>82934098</v>
+      </c>
+      <c r="B132">
+        <v>1713746</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132" t="s">
+        <v>248</v>
+      </c>
+      <c r="G132" t="s">
+        <v>249</v>
+      </c>
+      <c r="H132">
+        <v>5</v>
+      </c>
+      <c r="I132">
+        <v>156.2</v>
+      </c>
+      <c r="J132">
+        <v>135.6891769911504</v>
+      </c>
+      <c r="K132">
+        <v>25.9292</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>109.7599769911505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>87278298</v>
+      </c>
+      <c r="B133">
+        <v>1713746</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F133" t="s">
+        <v>248</v>
+      </c>
+      <c r="G133" t="s">
+        <v>249</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J133">
+        <v>60.18897345132745</v>
+      </c>
+      <c r="K133">
+        <v>11.6864</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>48.50257345132745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>88792088</v>
+      </c>
+      <c r="B134">
+        <v>1713746</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>147</v>
+      </c>
+      <c r="F134" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" t="s">
+        <v>250</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>61.4</v>
+      </c>
+      <c r="J134">
+        <v>52.26937168141593</v>
+      </c>
+      <c r="K134">
+        <v>10.1924</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>42.07697168141593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>86024718</v>
+      </c>
+      <c r="B135">
+        <v>1713746</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>148</v>
+      </c>
+      <c r="F135" t="s">
+        <v>250</v>
+      </c>
+      <c r="G135" t="s">
+        <v>259</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>135.2</v>
+      </c>
+      <c r="J135">
+        <v>117.2101061946903</v>
+      </c>
+      <c r="K135">
+        <v>22.4432</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>94.76690619469026</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
+        <v>88896093</v>
+      </c>
+      <c r="B136">
+        <v>1713746</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" t="s">
+        <v>250</v>
+      </c>
+      <c r="G136" t="s">
+        <v>259</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>121.7</v>
+      </c>
+      <c r="J136">
+        <v>105.330703539823</v>
+      </c>
+      <c r="K136">
+        <v>20.2022</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>85.12850353982301</v>
       </c>
     </row>
   </sheetData>
